--- a/data/hotels_by_city/Houston/Houston_shard_554.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_554.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="669">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d286988-Reviews-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
   </si>
   <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Residence-Inn-By-Marriott-Houston-West-University.h984887.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1937 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/12/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r584714409-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>286988</t>
+  </si>
+  <si>
+    <t>584714409</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t>Average is just fine!</t>
+  </si>
+  <si>
+    <t>The staff are friendly and efficient,  the location is very conveniently located for those visiting West U and Rice, and not bad for getting to the medical center or downtown.  As the weather in Houston in the summer is very hot the approximately 400 yard walk to the nearest restaurant would be a pain but within a mile from this location you have a variety of restaurants,  grocery stores, a drug store and more.  The rooms,  suites mostly,  are what you would expect from this brand.  The gym and pool are adequate and well maintained.  Parking is 6 dollars a day and is unsecured but plentiful.   In short this is an average property for the brand in a good and convenient location staffed by friendly and efficient people.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>ShellyLev, General Manager at Residence Inn Houston-West University, responded to this reviewResponded June 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 4, 2018</t>
+  </si>
+  <si>
+    <t>The staff are friendly and efficient,  the location is very conveniently located for those visiting West U and Rice, and not bad for getting to the medical center or downtown.  As the weather in Houston in the summer is very hot the approximately 400 yard walk to the nearest restaurant would be a pain but within a mile from this location you have a variety of restaurants,  grocery stores, a drug store and more.  The rooms,  suites mostly,  are what you would expect from this brand.  The gym and pool are adequate and well maintained.  Parking is 6 dollars a day and is unsecured but plentiful.   In short this is an average property for the brand in a good and convenient location staffed by friendly and efficient people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r583591009-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>583591009</t>
+  </si>
+  <si>
+    <t>05/29/2018</t>
+  </si>
+  <si>
+    <t>great stay</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our 9 month old baby for two nights and it was very nice. The hotel is well situated near down town and the highway. Nearby are several restaurants and a CVS, which is convenient. Check in was smooth and quick, our room was set up with the crib, separate bedroom, couch, table with two chairs, and small kitchen. Everything was very clean and well taken care of. The bathroom had basic amenities. The property shares parking with the Courtyard Marriott next door. There is a swimming pool, hot tub, basketball court, laundry room, etc. all standard Residence Inn amenities. Breakfast was good, normal for a Residence Inn with eggs, sausage, waffles, etc. Parking was an additional nightly fee, which was kind of annoying as there was plenty of parking.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our 9 month old baby for two nights and it was very nice. The hotel is well situated near down town and the highway. Nearby are several restaurants and a CVS, which is convenient. Check in was smooth and quick, our room was set up with the crib, separate bedroom, couch, table with two chairs, and small kitchen. Everything was very clean and well taken care of. The bathroom had basic amenities. The property shares parking with the Courtyard Marriott next door. There is a swimming pool, hot tub, basketball court, laundry room, etc. all standard Residence Inn amenities. Breakfast was good, normal for a Residence Inn with eggs, sausage, waffles, etc. Parking was an additional nightly fee, which was kind of annoying as there was plenty of parking.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r580398360-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>580398360</t>
+  </si>
+  <si>
+    <t>05/15/2018</t>
+  </si>
+  <si>
+    <t>Feels more like a suite than Residence Inn</t>
+  </si>
+  <si>
+    <t>Great location near 59 and West U.
+I called the hotel several months ago when we were shopping for a hotel to visit our daughter that lives nearby.  I hate paying for parking, resort fees, etc.  So I called the property and was told there was a $6 parking fee (I think it was $6, but around that).  I decided that the proximity to our daughter and the overall reviews on TripAdvisor made me give in and pay the parking fee.  THEN, when we got there we were told because I’m gold on Marriott, that the parking fee was waved.  It would have been nice to know that when I inquired originally. So if you are Gold Marriott you might ask about this.
+Second, I was sent an email for an early check-in, so I checked in early.  When we got to the hotel, we were given keys to 204 (I’m pretty sure that was the number) and instructed where to park to go to that room.  We went there and the key didn’t work, and there was a nice family in the room.  We called the front desk and they said whoops, don’t know why it says 204 on the card, we are in 218 (or 215 I forget).  So we walk down and around to that room, and the keys won’t work.  Now, back to the lobby, and had to get new keys for 215.  Let’s just say...Great location near 59 and West U.I called the hotel several months ago when we were shopping for a hotel to visit our daughter that lives nearby.  I hate paying for parking, resort fees, etc.  So I called the property and was told there was a $6 parking fee (I think it was $6, but around that).  I decided that the proximity to our daughter and the overall reviews on TripAdvisor made me give in and pay the parking fee.  THEN, when we got there we were told because I’m gold on Marriott, that the parking fee was waved.  It would have been nice to know that when I inquired originally. So if you are Gold Marriott you might ask about this.Second, I was sent an email for an early check-in, so I checked in early.  When we got to the hotel, we were given keys to 204 (I’m pretty sure that was the number) and instructed where to park to go to that room.  We went there and the key didn’t work, and there was a nice family in the room.  We called the front desk and they said whoops, don’t know why it says 204 on the card, we are in 218 (or 215 I forget).  So we walk down and around to that room, and the keys won’t work.  Now, back to the lobby, and had to get new keys for 215.  Let’s just say I’ll skip the early check-in next time.Loved that I could get Hulu/Netflix on the TV.Shower was very niceFree microwave pop cornSome is said that it is a high security needed location.  For those of you from out of town, this is not a bad neighborhood.  However in Houston, you can be parked anywhere and run the risk of getting broken into.  Unfortunately it's the big city and it's hard to catch everybody.  I wouldn't leave anything in the cars anywhere in Houston overnight.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>Great location near 59 and West U.
+I called the hotel several months ago when we were shopping for a hotel to visit our daughter that lives nearby.  I hate paying for parking, resort fees, etc.  So I called the property and was told there was a $6 parking fee (I think it was $6, but around that).  I decided that the proximity to our daughter and the overall reviews on TripAdvisor made me give in and pay the parking fee.  THEN, when we got there we were told because I’m gold on Marriott, that the parking fee was waved.  It would have been nice to know that when I inquired originally. So if you are Gold Marriott you might ask about this.
+Second, I was sent an email for an early check-in, so I checked in early.  When we got to the hotel, we were given keys to 204 (I’m pretty sure that was the number) and instructed where to park to go to that room.  We went there and the key didn’t work, and there was a nice family in the room.  We called the front desk and they said whoops, don’t know why it says 204 on the card, we are in 218 (or 215 I forget).  So we walk down and around to that room, and the keys won’t work.  Now, back to the lobby, and had to get new keys for 215.  Let’s just say...Great location near 59 and West U.I called the hotel several months ago when we were shopping for a hotel to visit our daughter that lives nearby.  I hate paying for parking, resort fees, etc.  So I called the property and was told there was a $6 parking fee (I think it was $6, but around that).  I decided that the proximity to our daughter and the overall reviews on TripAdvisor made me give in and pay the parking fee.  THEN, when we got there we were told because I’m gold on Marriott, that the parking fee was waved.  It would have been nice to know that when I inquired originally. So if you are Gold Marriott you might ask about this.Second, I was sent an email for an early check-in, so I checked in early.  When we got to the hotel, we were given keys to 204 (I’m pretty sure that was the number) and instructed where to park to go to that room.  We went there and the key didn’t work, and there was a nice family in the room.  We called the front desk and they said whoops, don’t know why it says 204 on the card, we are in 218 (or 215 I forget).  So we walk down and around to that room, and the keys won’t work.  Now, back to the lobby, and had to get new keys for 215.  Let’s just say I’ll skip the early check-in next time.Loved that I could get Hulu/Netflix on the TV.Shower was very niceFree microwave pop cornSome is said that it is a high security needed location.  For those of you from out of town, this is not a bad neighborhood.  However in Houston, you can be parked anywhere and run the risk of getting broken into.  Unfortunately it's the big city and it's hard to catch everybody.  I wouldn't leave anything in the cars anywhere in Houston overnight.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r577652767-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>577652767</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Renovated Recently, But...</t>
+  </si>
+  <si>
+    <t>This hotel recently did a renovation, replacing carpet, updating decorations and freshening up paint. It is clean, safe and the staff is professional/friendly. However, our room, while updated, had nagging problems that were missed - our bathroom door was so sagging on its hinges that you had to lift it to close it (and it creaked every time it moved), bathroom shelf falling out of the wall, shower head that drooped in its mount such that you couldn’t shower, sofa that groaned with every move and more.So, this hotel spent a lot of money for cosmetic updates and skipped over aging infrastructure that needs addressing. It is a shame since it’s in a great location, staff is engaging and it’s a very secure facility.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>ShellyLev, General Manager at Residence Inn Houston-West University, responded to this reviewResponded May 4, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2018</t>
+  </si>
+  <si>
+    <t>This hotel recently did a renovation, replacing carpet, updating decorations and freshening up paint. It is clean, safe and the staff is professional/friendly. However, our room, while updated, had nagging problems that were missed - our bathroom door was so sagging on its hinges that you had to lift it to close it (and it creaked every time it moved), bathroom shelf falling out of the wall, shower head that drooped in its mount such that you couldn’t shower, sofa that groaned with every move and more.So, this hotel spent a lot of money for cosmetic updates and skipped over aging infrastructure that needs addressing. It is a shame since it’s in a great location, staff is engaging and it’s a very secure facility.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r566139195-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>566139195</t>
+  </si>
+  <si>
+    <t>03/12/2018</t>
+  </si>
+  <si>
+    <t>Overall good visit</t>
+  </si>
+  <si>
+    <t>Pros:Room was very clean. When we arrived our original room had a smell like carpet had just been cleaned and it was too strong for my allergies, so we switched (no problems switching). The suite was perfect for our family as we have a little one who slept in the living room. The bathroom was in through the bedroom so I could do where that would be a problem if adults were sleeping on the fold out couch. Breakfast was good and lots of choices including meats, eggs, breads, waffles, etc.Cons:No one we interacted with was very friendly. This does make a difference. Also, we had to wait for a table in the breakfast room because it is fairly small. We’d stay here again. It was convenient to Hermann park attractions like the zoo. MoreShow less</t>
+  </si>
+  <si>
+    <t>ShellyLev, General Manager at Residence Inn Houston-West University, responded to this reviewResponded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded May 7, 2018</t>
+  </si>
+  <si>
+    <t>Pros:Room was very clean. When we arrived our original room had a smell like carpet had just been cleaned and it was too strong for my allergies, so we switched (no problems switching). The suite was perfect for our family as we have a little one who slept in the living room. The bathroom was in through the bedroom so I could do where that would be a problem if adults were sleeping on the fold out couch. Breakfast was good and lots of choices including meats, eggs, breads, waffles, etc.Cons:No one we interacted with was very friendly. This does make a difference. Also, we had to wait for a table in the breakfast room because it is fairly small. We’d stay here again. It was convenient to Hermann park attractions like the zoo. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r553290208-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>553290208</t>
+  </si>
+  <si>
+    <t>01/11/2018</t>
+  </si>
+  <si>
+    <t>Awesome Place to Stay</t>
+  </si>
+  <si>
+    <t>Houston has many hotel choices. If you want to stay near Galleria then it is the best place to stay. The hotel is nice, clean and spacious. Parking and breakfast is free, compared to other hotels will charge you. A minute drive there are a lot of restaurant choice. The famous Chinese Din Dynasty is 1 minute drive. Starbucks is also a minute drive. Galleria is 5 minute drive. Shopping is close. The staff is the best part of the hotel. Honest and very very helpful. The manager (I don’t remember her name) but was born to run a hotel. I left my I-Pad and called a week later and it was there in the safe. The room is a suite and it is like a one bedroom apartment. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>Houston has many hotel choices. If you want to stay near Galleria then it is the best place to stay. The hotel is nice, clean and spacious. Parking and breakfast is free, compared to other hotels will charge you. A minute drive there are a lot of restaurant choice. The famous Chinese Din Dynasty is 1 minute drive. Starbucks is also a minute drive. Galleria is 5 minute drive. Shopping is close. The staff is the best part of the hotel. Honest and very very helpful. The manager (I don’t remember her name) but was born to run a hotel. I left my I-Pad and called a week later and it was there in the safe. The room is a suite and it is like a one bedroom apartment. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r534437212-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>534437212</t>
+  </si>
+  <si>
+    <t>10/19/2017</t>
+  </si>
+  <si>
+    <t>Well run property, clean and pleasant</t>
+  </si>
+  <si>
+    <t>I spent last weekend at the hotel.  My room was spotless, roomy, and the bed very comfortable.  I appreciated the amenities such as a dishwasher, refrigerator, etc. When a light bulb blew out in the bathroom, someone came to repair it very quickly.Service was mostly efficient, although the way my reservation was handled resulted in me having a different reservation for each night, and initially being told that I had no reservation.  Apparently others in my party had the same experience.</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r529149587-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>529149587</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t>I like the location because it is walking distance to quite a number of restaurants. The rooms are clean and comfortable. It is nice to have a refrigerator and a microwave. It is well-designed for a gadget freak with many outlets. The staff is friendly</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r516884298-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>516884298</t>
+  </si>
+  <si>
+    <t>08/23/2017</t>
+  </si>
+  <si>
+    <t>Not the same mainstay I am used to</t>
+  </si>
+  <si>
+    <t>This residence inn is my regular place to stay when I come to Houston.  This trip was not up to the standards I am used to seeing. The problem started before I got there.  I changed my reservation and the change was not recorded and I had to call several times to get the reservation correct.  When I called ahead of time to see if could receive an upgrade with Marriott Rewards and was told someone would call me back.  No one ever called. When I arrived to check in no one was in sight.  I waited for about 10 minutes and still no one in sight, so we left a note and went out to dinner.  I called back to hotel to see if we were going to be able to check in and if we could receive an upgrade.  We were not given an upgrade.  I joined Marriotts rewards and have not received any benefit.  We purchased groceries and the refrigerator was warm, which made us believe our food was not fit to eat, so we threw it away.  On our last day we left in the morning to get breakfast and when we returned, our room was left wide open by engineers who were installing new tvs and could not wait until we checked out.  As we entered the room, all of our belongings, including our laptops were just left there completely exposed to anyone walking down...This residence inn is my regular place to stay when I come to Houston.  This trip was not up to the standards I am used to seeing. The problem started before I got there.  I changed my reservation and the change was not recorded and I had to call several times to get the reservation correct.  When I called ahead of time to see if could receive an upgrade with Marriott Rewards and was told someone would call me back.  No one ever called. When I arrived to check in no one was in sight.  I waited for about 10 minutes and still no one in sight, so we left a note and went out to dinner.  I called back to hotel to see if we were going to be able to check in and if we could receive an upgrade.  We were not given an upgrade.  I joined Marriotts rewards and have not received any benefit.  We purchased groceries and the refrigerator was warm, which made us believe our food was not fit to eat, so we threw it away.  On our last day we left in the morning to get breakfast and when we returned, our room was left wide open by engineers who were installing new tvs and could not wait until we checked out.  As we entered the room, all of our belongings, including our laptops were just left there completely exposed to anyone walking down the hallway.  We felt violated.  This the place I usually stay at least 3 times per year.  It is centrally located and usually has great customer service and room.  This time was not a great experience.  May need to find a new mainstay for my Houston visits.  :(MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>ShellyLev, General Manager at Residence Inn Houston-West University, responded to this reviewResponded August 26, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 26, 2017</t>
+  </si>
+  <si>
+    <t>This residence inn is my regular place to stay when I come to Houston.  This trip was not up to the standards I am used to seeing. The problem started before I got there.  I changed my reservation and the change was not recorded and I had to call several times to get the reservation correct.  When I called ahead of time to see if could receive an upgrade with Marriott Rewards and was told someone would call me back.  No one ever called. When I arrived to check in no one was in sight.  I waited for about 10 minutes and still no one in sight, so we left a note and went out to dinner.  I called back to hotel to see if we were going to be able to check in and if we could receive an upgrade.  We were not given an upgrade.  I joined Marriotts rewards and have not received any benefit.  We purchased groceries and the refrigerator was warm, which made us believe our food was not fit to eat, so we threw it away.  On our last day we left in the morning to get breakfast and when we returned, our room was left wide open by engineers who were installing new tvs and could not wait until we checked out.  As we entered the room, all of our belongings, including our laptops were just left there completely exposed to anyone walking down...This residence inn is my regular place to stay when I come to Houston.  This trip was not up to the standards I am used to seeing. The problem started before I got there.  I changed my reservation and the change was not recorded and I had to call several times to get the reservation correct.  When I called ahead of time to see if could receive an upgrade with Marriott Rewards and was told someone would call me back.  No one ever called. When I arrived to check in no one was in sight.  I waited for about 10 minutes and still no one in sight, so we left a note and went out to dinner.  I called back to hotel to see if we were going to be able to check in and if we could receive an upgrade.  We were not given an upgrade.  I joined Marriotts rewards and have not received any benefit.  We purchased groceries and the refrigerator was warm, which made us believe our food was not fit to eat, so we threw it away.  On our last day we left in the morning to get breakfast and when we returned, our room was left wide open by engineers who were installing new tvs and could not wait until we checked out.  As we entered the room, all of our belongings, including our laptops were just left there completely exposed to anyone walking down the hallway.  We felt violated.  This the place I usually stay at least 3 times per year.  It is centrally located and usually has great customer service and room.  This time was not a great experience.  May need to find a new mainstay for my Houston visits.  :(More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r494124722-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>494124722</t>
+  </si>
+  <si>
+    <t>06/18/2017</t>
+  </si>
+  <si>
+    <t>Great hotel, wonderful service</t>
+  </si>
+  <si>
+    <t>We were looking for a suite to hold 5 people and had dogs we wanted to bring with us.  The Residence Inn provided the perfect room - a 2 bedroom suite with a sleeper couch.  For a one time pet fee (same price regardless of days visiting), we were able to have our pets with us and enjoy time with family.  The breakfast buffet is included in the rate and was tasty and had nice variety with both hot and cold options, as well as oatmeal and waffles.  They had a too-sweet but delicious coffee cake that I could not avoid.  Parking is free which was great for us since we had family from three separate cities and that made the difference for us - we selected this hotel over a downtown location for the parking.  There are several restaurants within walking distance - Guadalajara and Olive Garden - perhaps more that I didn't notice. The hotel staff was very helpful and worked to accommodate our needs regarding room placement.  We were very happy and would stay there again on our next visit.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2017</t>
+  </si>
+  <si>
+    <t>We were looking for a suite to hold 5 people and had dogs we wanted to bring with us.  The Residence Inn provided the perfect room - a 2 bedroom suite with a sleeper couch.  For a one time pet fee (same price regardless of days visiting), we were able to have our pets with us and enjoy time with family.  The breakfast buffet is included in the rate and was tasty and had nice variety with both hot and cold options, as well as oatmeal and waffles.  They had a too-sweet but delicious coffee cake that I could not avoid.  Parking is free which was great for us since we had family from three separate cities and that made the difference for us - we selected this hotel over a downtown location for the parking.  There are several restaurants within walking distance - Guadalajara and Olive Garden - perhaps more that I didn't notice. The hotel staff was very helpful and worked to accommodate our needs regarding room placement.  We were very happy and would stay there again on our next visit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r492589444-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>492589444</t>
+  </si>
+  <si>
+    <t>06/12/2017</t>
+  </si>
+  <si>
+    <t>Spacious!</t>
+  </si>
+  <si>
+    <t>This is a typical Residence Inn property, slightly older but updated and well maintained.  The room was huge, with plenty of space to spread out, work desk in the living room area, and plenty of outlets for charging devices and working.  Bed was very comfortable.  Noise was minimal.  AC was loud but functioned adequately.  I didn't use the kitchenette.  The breakfast looked pretty good, standard fare.  Small fitness room lacks water dispenses, but it's right around the corner in the hall.  Easy access to Southwest Freeway, and plenty of dining options nearby.  Small pool area and sport court available.Con: no in-room safe.    But, everything else you need is there.  Good value.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 14, 2017</t>
+  </si>
+  <si>
+    <t>This is a typical Residence Inn property, slightly older but updated and well maintained.  The room was huge, with plenty of space to spread out, work desk in the living room area, and plenty of outlets for charging devices and working.  Bed was very comfortable.  Noise was minimal.  AC was loud but functioned adequately.  I didn't use the kitchenette.  The breakfast looked pretty good, standard fare.  Small fitness room lacks water dispenses, but it's right around the corner in the hall.  Easy access to Southwest Freeway, and plenty of dining options nearby.  Small pool area and sport court available.Con: no in-room safe.    But, everything else you need is there.  Good value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r487290616-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>487290616</t>
+  </si>
+  <si>
+    <t>05/24/2017</t>
+  </si>
+  <si>
+    <t>Large rooms</t>
+  </si>
+  <si>
+    <t>Tucked behind the Marriott Courtyard so a little hard to find and right next to a large Coke bottling plant.  Large clean rooms with free breakfast, work areas and swimming pool.  Ask for room away from the bottling plant in that it has lots of truck noise during the night.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 27, 2017</t>
+  </si>
+  <si>
+    <t>Tucked behind the Marriott Courtyard so a little hard to find and right next to a large Coke bottling plant.  Large clean rooms with free breakfast, work areas and swimming pool.  Ask for room away from the bottling plant in that it has lots of truck noise during the night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r471629981-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>471629981</t>
+  </si>
+  <si>
+    <t>03/31/2017</t>
+  </si>
+  <si>
+    <t>DEFINITELY recommend!!!</t>
+  </si>
+  <si>
+    <t>I would ABSOLUTELY recommend this hotel to anyone. We are house hunting and needed a long term place to stay. I am a registered dietitian and am so impressed with the food offerings. Breakfast every morning (free) included oatmeal, soy milk, fruit, Greek yogurt, hard boiled eggs, and more. We had a happy hour with fruit and veggies one night (free), a grill dinner of chicken and veggie burgers another night (free). I am in heaven! So nice!!!! The rooms are great too and I am impressed by the pool and fitness center.</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r464912391-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>464912391</t>
+  </si>
+  <si>
+    <t>03/05/2017</t>
+  </si>
+  <si>
+    <t>a month in Houston</t>
+  </si>
+  <si>
+    <t>We were visiting our family in Houston.  The Residence Inn was close by and fit the bill.  The room was clean and the entire staff was helpful and friendly throughout our stay.The area, with the exception of construction next door, was quiet and we slept well.  The free breakfasts were  plentiful with various choices and coffee was available all day.  The price was fair.  Free parking was a very nice perk.  The fitness room was adequate though the pool was small and could have been cared for better.  The TV choices were not extensive.In sum we had a good stay in a nice place.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>Sasha S, Front Office Manager at Residence Inn Houston-West University, responded to this reviewResponded March 7, 2017</t>
+  </si>
+  <si>
+    <t>Responded March 7, 2017</t>
+  </si>
+  <si>
+    <t>We were visiting our family in Houston.  The Residence Inn was close by and fit the bill.  The room was clean and the entire staff was helpful and friendly throughout our stay.The area, with the exception of construction next door, was quiet and we slept well.  The free breakfasts were  plentiful with various choices and coffee was available all day.  The price was fair.  Free parking was a very nice perk.  The fitness room was adequate though the pool was small and could have been cared for better.  The TV choices were not extensive.In sum we had a good stay in a nice place.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r456833759-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456833759</t>
+  </si>
+  <si>
+    <t>02/02/2017</t>
+  </si>
+  <si>
+    <t>All you need in a neat package</t>
+  </si>
+  <si>
+    <t>Room was clean, it has the usual amenities like gym and pool. Within walking distance to nice eateries. Free parking here which is pretty rare at Houston hotels. Experience some mischarging issues but the administrative staff was prompt and responsive which made the ordeal bearable.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r442447583-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>442447583</t>
+  </si>
+  <si>
+    <t>12/06/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Overnight </t>
+  </si>
+  <si>
+    <t>Needed hotel close to wedding &amp; this was convenient, easy to park, clean, and a good price. Plenty of space in room. Delivered consistent Marriott quality. With a little more personal touch at check-in could have been a 5 rating. Easy to get to from Reliant Stadium using Buffalo Speedway. MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2016</t>
+  </si>
+  <si>
+    <t>Needed hotel close to wedding &amp; this was convenient, easy to park, clean, and a good price. Plenty of space in room. Delivered consistent Marriott quality. With a little more personal touch at check-in could have been a 5 rating. Easy to get to from Reliant Stadium using Buffalo Speedway. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r439067838-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>439067838</t>
+  </si>
+  <si>
+    <t>11/21/2016</t>
+  </si>
+  <si>
+    <t>Great location and wonderful staff</t>
+  </si>
+  <si>
+    <t>We arrived over 4 hours before check in time, but they had our room ready for us. Front desk staff was very warm and welcoming. The studio room was nice-- however, things could have been a bit cleaner- lots of hair on the couch pillows.  Breakfast was also very average- only sugared cereals and the eggs tasted powdered. Potatoes had a frozen taste.But the location was excellent for being near both Rice University and the Museums.MoreShow less</t>
+  </si>
+  <si>
+    <t>Sasha S, Front Office Manager at Residence Inn Houston-West University, responded to this reviewResponded November 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 22, 2016</t>
+  </si>
+  <si>
+    <t>We arrived over 4 hours before check in time, but they had our room ready for us. Front desk staff was very warm and welcoming. The studio room was nice-- however, things could have been a bit cleaner- lots of hair on the couch pillows.  Breakfast was also very average- only sugared cereals and the eggs tasted powdered. Potatoes had a frozen taste.But the location was excellent for being near both Rice University and the Museums.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r424264022-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>424264022</t>
+  </si>
+  <si>
+    <t>10/01/2016</t>
+  </si>
+  <si>
+    <t>1bd suite</t>
+  </si>
+  <si>
+    <t>Very nice, very clean, stylish and modern. My room looked just like the pictures. I was concerned bc they had just remodeled that I would get an older room. But it was perfect. The kitchen is fully stocked with utensils, serving dishes, and a couple of pots and pans. Also a dishwasher and condiments. The fridge is small but plenty of space for someone who's traveling. location is great, near a Kroger and lots of restaurants. Also right off of major hwy 59. Can't go wrong!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Responded October 5, 2016</t>
+  </si>
+  <si>
+    <t>Very nice, very clean, stylish and modern. My room looked just like the pictures. I was concerned bc they had just remodeled that I would get an older room. But it was perfect. The kitchen is fully stocked with utensils, serving dishes, and a couple of pots and pans. Also a dishwasher and condiments. The fridge is small but plenty of space for someone who's traveling. location is great, near a Kroger and lots of restaurants. Also right off of major hwy 59. Can't go wrong!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r400077484-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>400077484</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>A decent place with a good staff, kind of in the middle of nowhere.</t>
+  </si>
+  <si>
+    <t>I had a business/ sales trip to attend in Houston.  We had an event around the corner so I opted to stay with the Marriot Chain.  I ended up with a large, large room for the regular rate.  It was a small 2 bedroom apartment.  Super nice and tons of room for once business traveler!  The staff was incredibly nice and helpful.  Overall it was a good stay!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2016</t>
+  </si>
+  <si>
+    <t>I had a business/ sales trip to attend in Houston.  We had an event around the corner so I opted to stay with the Marriot Chain.  I ended up with a large, large room for the regular rate.  It was a small 2 bedroom apartment.  Super nice and tons of room for once business traveler!  The staff was incredibly nice and helpful.  Overall it was a good stay!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r395963464-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>395963464</t>
+  </si>
+  <si>
+    <t>07/23/2016</t>
+  </si>
+  <si>
+    <t>Functional, but not fantastic</t>
+  </si>
+  <si>
+    <t>The hotel is well situated, and the staff is very friendly. But overall the property is a bit dated, and the room itself was mediocre. It had that musty smell of an old hotel room that desperately needs to be aired out. The bed was loud and creaky. We were there for only one night so it wasn't worth changing rooms or anything, but it represented a lack of attention to detail. Nevertheless, for what it was, this property served its purpose, and would probably be best suited to the business traveler rather than a family.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The hotel is well situated, and the staff is very friendly. But overall the property is a bit dated, and the room itself was mediocre. It had that musty smell of an old hotel room that desperately needs to be aired out. The bed was loud and creaky. We were there for only one night so it wasn't worth changing rooms or anything, but it represented a lack of attention to detail. Nevertheless, for what it was, this property served its purpose, and would probably be best suited to the business traveler rather than a family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r392179582-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>392179582</t>
+  </si>
+  <si>
+    <t>07/13/2016</t>
+  </si>
+  <si>
+    <t>Very Satisfied</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was our first time bringing our kids to houston &amp; also their first time in a hotel. They loved the breakfast (was too much to choose from...lol), &amp; the pools. The 1 bedroom suite was perfect for us, as the kids had the sofa bed to sleep. The hotel is situated perfectly for a family trip to houston. The zoo, aquarium &amp; nasa space center are all within a few minutes from the hotel. The staff were very friendly &amp; performed higher than our expactions. All in all, a great hotel at a great price. We were extremely satisfied. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r381655163-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>381655163</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>Very good place to stay, Very Very Friendly Staff, Nice shuttle service</t>
+  </si>
+  <si>
+    <t>When I moved to Boston to Houston, I stayed in this hotel for 30+ days which was sponsored by my employer for initial days to settle down in Houston. In summary, I liked this place for its location, very very friendly front desk staff, general manager, good breakfast, nice shuttle service. Twice hotel GM dropped me at my office when I missed the shuttle which leaves at 8.00 AM service. During my stay there was Final Four event, so my stay was little expensive. The breakfast was very good with lots of options. And evening socials with Beer/Wine with snacks like salads, grilled chicken etc. The hotel staff were so friendly with my family. My 3 year old son goes to front desk to get his coloring print outs (he is fond of animals and coloring) million times during our stay, each time, they did it with smile. The other important stuff is their shuttle service to the places within 3 miles range. They offer drop and pickup services on request. I used it for my daily commute to my work during my entire stay. As I said earlier, the general manager dropped me twice. My wife and kid used the shuttle as if its our own car with chauffeur to Zoo, Children Museum, Grocery stores, nearby attractions. Really enjoyed our stay here.
+Thanks to Front Desk Staff, GM, Chef and Shuttle Drivers...You all made our move to Houston as...When I moved to Boston to Houston, I stayed in this hotel for 30+ days which was sponsored by my employer for initial days to settle down in Houston. In summary, I liked this place for its location, very very friendly front desk staff, general manager, good breakfast, nice shuttle service. Twice hotel GM dropped me at my office when I missed the shuttle which leaves at 8.00 AM service. During my stay there was Final Four event, so my stay was little expensive. The breakfast was very good with lots of options. And evening socials with Beer/Wine with snacks like salads, grilled chicken etc. The hotel staff were so friendly with my family. My 3 year old son goes to front desk to get his coloring print outs (he is fond of animals and coloring) million times during our stay, each time, they did it with smile. The other important stuff is their shuttle service to the places within 3 miles range. They offer drop and pickup services on request. I used it for my daily commute to my work during my entire stay. As I said earlier, the general manager dropped me twice. My wife and kid used the shuttle as if its our own car with chauffeur to Zoo, Children Museum, Grocery stores, nearby attractions. Really enjoyed our stay here.Thanks to Front Desk Staff, GM, Chef and Shuttle Drivers...You all made our move to Houston as an amazing experience....Keep it up...Looking forward to stay there again...MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded June 23, 2016</t>
+  </si>
+  <si>
+    <t>Responded June 23, 2016</t>
+  </si>
+  <si>
+    <t>When I moved to Boston to Houston, I stayed in this hotel for 30+ days which was sponsored by my employer for initial days to settle down in Houston. In summary, I liked this place for its location, very very friendly front desk staff, general manager, good breakfast, nice shuttle service. Twice hotel GM dropped me at my office when I missed the shuttle which leaves at 8.00 AM service. During my stay there was Final Four event, so my stay was little expensive. The breakfast was very good with lots of options. And evening socials with Beer/Wine with snacks like salads, grilled chicken etc. The hotel staff were so friendly with my family. My 3 year old son goes to front desk to get his coloring print outs (he is fond of animals and coloring) million times during our stay, each time, they did it with smile. The other important stuff is their shuttle service to the places within 3 miles range. They offer drop and pickup services on request. I used it for my daily commute to my work during my entire stay. As I said earlier, the general manager dropped me twice. My wife and kid used the shuttle as if its our own car with chauffeur to Zoo, Children Museum, Grocery stores, nearby attractions. Really enjoyed our stay here.
+Thanks to Front Desk Staff, GM, Chef and Shuttle Drivers...You all made our move to Houston as...When I moved to Boston to Houston, I stayed in this hotel for 30+ days which was sponsored by my employer for initial days to settle down in Houston. In summary, I liked this place for its location, very very friendly front desk staff, general manager, good breakfast, nice shuttle service. Twice hotel GM dropped me at my office when I missed the shuttle which leaves at 8.00 AM service. During my stay there was Final Four event, so my stay was little expensive. The breakfast was very good with lots of options. And evening socials with Beer/Wine with snacks like salads, grilled chicken etc. The hotel staff were so friendly with my family. My 3 year old son goes to front desk to get his coloring print outs (he is fond of animals and coloring) million times during our stay, each time, they did it with smile. The other important stuff is their shuttle service to the places within 3 miles range. They offer drop and pickup services on request. I used it for my daily commute to my work during my entire stay. As I said earlier, the general manager dropped me twice. My wife and kid used the shuttle as if its our own car with chauffeur to Zoo, Children Museum, Grocery stores, nearby attractions. Really enjoyed our stay here.Thanks to Front Desk Staff, GM, Chef and Shuttle Drivers...You all made our move to Houston as an amazing experience....Keep it up...Looking forward to stay there again...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r371532567-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371532567</t>
+  </si>
+  <si>
+    <t>05/09/2016</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>We enjoyed staying here.  The location was perfect since everything we needed and wanted to do was not very far.  The staff were very friendly and always eager to assist.  Also, the rooms were clean and not too cold or too hot.  I would stay here again when in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded May 24, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 24, 2016</t>
+  </si>
+  <si>
+    <t>We enjoyed staying here.  The location was perfect since everything we needed and wanted to do was not very far.  The staff were very friendly and always eager to assist.  Also, the rooms were clean and not too cold or too hot.  I would stay here again when in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r371055655-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>371055655</t>
+  </si>
+  <si>
+    <t>05/07/2016</t>
+  </si>
+  <si>
+    <t>Home Away From Home!</t>
+  </si>
+  <si>
+    <t>excellent location, friendly staff who goes above and beyond to help.I  stayed here with my 3 yrs old son, the hotel staff were helpful  beyond words,MY son really loves the front desk people,Jasmine ,who calls my son My baby ,Abby,James, ,Gorothy and few others whose name I missed to take,they were very accommodating,they readily  print pictures for my son to color, and patiently answer his questions.The shuttle service was amazing ,they readily offered us to drive to zoo, museum, water wall and the Galleria and the grocery stores,The Driver Kenneth was more than accommodating.I cannot thank  enough to John and Yoyo who was always there when we would look for them,couple of times when we miss the shuttle ,the Managers drove us around.The breakfast attendant Janette ,was always cheerful, friendly and accommodating.We just moved out yesterday ,and missing this place dearlyMoreShow less</t>
+  </si>
+  <si>
+    <t>excellent location, friendly staff who goes above and beyond to help.I  stayed here with my 3 yrs old son, the hotel staff were helpful  beyond words,MY son really loves the front desk people,Jasmine ,who calls my son My baby ,Abby,James, ,Gorothy and few others whose name I missed to take,they were very accommodating,they readily  print pictures for my son to color, and patiently answer his questions.The shuttle service was amazing ,they readily offered us to drive to zoo, museum, water wall and the Galleria and the grocery stores,The Driver Kenneth was more than accommodating.I cannot thank  enough to John and Yoyo who was always there when we would look for them,couple of times when we miss the shuttle ,the Managers drove us around.The breakfast attendant Janette ,was always cheerful, friendly and accommodating.We just moved out yesterday ,and missing this place dearlyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r363451865-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>363451865</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Can't beat the location</t>
+  </si>
+  <si>
+    <t>I've always underestimated this hotel, but after a recent stay I won't do that anymore. The customer service here is above average, the free breakfast was above average, and the rooms (recently remodeled I hear) are above average. This is an above average hotel in close proximity to the medical center, NRG (Texans Stadium), downtown Houston, the Galleria, restaurants, Rice Village and the rodeo. If you are in Houston this is definitely a good bet for an average priced hotel that's above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded April 19, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 19, 2016</t>
+  </si>
+  <si>
+    <t>I've always underestimated this hotel, but after a recent stay I won't do that anymore. The customer service here is above average, the free breakfast was above average, and the rooms (recently remodeled I hear) are above average. This is an above average hotel in close proximity to the medical center, NRG (Texans Stadium), downtown Houston, the Galleria, restaurants, Rice Village and the rodeo. If you are in Houston this is definitely a good bet for an average priced hotel that's above average.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r357298514-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357298514</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Quite Comfortable</t>
+  </si>
+  <si>
+    <t>This is the way overnight stays should be. Very nice sized room, super clean, well appointed and quiet. Only stayed one night but could have stayed several without hesitation. The breakfast was standard hotel fare but good tasting. Overall, this was an ace.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded March 26, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 26, 2016</t>
+  </si>
+  <si>
+    <t>This is the way overnight stays should be. Very nice sized room, super clean, well appointed and quiet. Only stayed one night but could have stayed several without hesitation. The breakfast was standard hotel fare but good tasting. Overall, this was an ace.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r350509600-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>350509600</t>
+  </si>
+  <si>
+    <t>02/24/2016</t>
+  </si>
+  <si>
+    <t>Nice Hotel - Terrible Beds!</t>
+  </si>
+  <si>
+    <t>We planned to stay for 3 nites.  Had to check out after 1 nite.  The bed was so bad.  Tried another in another room.  Just as bad.  We moved next door to the Courtyard.  Otherwise it was a nice hotel.  Good location for what we needed.  Friendly staff.  Good breakfast.  Room was pretty well equipped.  Typical thin walls so we heard the folks next door yakking into the wee hours.MoreShow less</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded February 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 25, 2016</t>
+  </si>
+  <si>
+    <t>We planned to stay for 3 nites.  Had to check out after 1 nite.  The bed was so bad.  Tried another in another room.  Just as bad.  We moved next door to the Courtyard.  Otherwise it was a nice hotel.  Good location for what we needed.  Friendly staff.  Good breakfast.  Room was pretty well equipped.  Typical thin walls so we heard the folks next door yakking into the wee hours.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r345050061-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>345050061</t>
+  </si>
+  <si>
+    <t>02/04/2016</t>
+  </si>
+  <si>
+    <t>Residence Inn is going downhill</t>
+  </si>
+  <si>
+    <t>I have stayed regularly at this hotel for 3.5 years.  The last 6-9 months, the entire staff changed and customer service was almost non-existing with the exception of James.
+I understand that things break and certainly don't mind when I need to report it and have it fixed.  But when they wait until late afternoon to work on a broken refrigerator that you report at 7am and then stick your food in the freezer (that's how I knew, food was not frozen at 530) to try and save it, that is ridiculous.
+There was a live water bug crawling around the silverware drawer.  I get that they do everything they can not to have these things but when I called and asked someone to come and remove it as it was trapped under a glass (I am deathly afraid of them) it remained there until mid day the following day.  These are just a few of the incidents in the last few months I stayed there.  But this last incident happened today.
+I received a voice, from a new front office manager, telling me my room in October 2015 had been charged to a card of a person that said he DID NOT know me.  Kind of accusing me of stealing someone's card.  Then a follow up email to tell me they had figured it out and that their staff had actually accidentally charged another guest for my stay.  No...I have stayed regularly at this hotel for 3.5 years.  The last 6-9 months, the entire staff changed and customer service was almost non-existing with the exception of James.I understand that things break and certainly don't mind when I need to report it and have it fixed.  But when they wait until late afternoon to work on a broken refrigerator that you report at 7am and then stick your food in the freezer (that's how I knew, food was not frozen at 530) to try and save it, that is ridiculous.There was a live water bug crawling around the silverware drawer.  I get that they do everything they can not to have these things but when I called and asked someone to come and remove it as it was trapped under a glass (I am deathly afraid of them) it remained there until mid day the following day.  These are just a few of the incidents in the last few months I stayed there.  But this last incident happened today.I received a voice, from a new front office manager, telling me my room in October 2015 had been charged to a card of a person that said he DID NOT know me.  Kind of accusing me of stealing someone's card.  Then a follow up email to tell me they had figured it out and that their staff had actually accidentally charged another guest for my stay.  No "sorry for the confusion" or " sorry for the inconvenience of our mistake."  NOTHING.I will never stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>Yoyo P, General Manager at Residence Inn Houston-West University, responded to this reviewResponded February 8, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 8, 2016</t>
+  </si>
+  <si>
+    <t>I have stayed regularly at this hotel for 3.5 years.  The last 6-9 months, the entire staff changed and customer service was almost non-existing with the exception of James.
+I understand that things break and certainly don't mind when I need to report it and have it fixed.  But when they wait until late afternoon to work on a broken refrigerator that you report at 7am and then stick your food in the freezer (that's how I knew, food was not frozen at 530) to try and save it, that is ridiculous.
+There was a live water bug crawling around the silverware drawer.  I get that they do everything they can not to have these things but when I called and asked someone to come and remove it as it was trapped under a glass (I am deathly afraid of them) it remained there until mid day the following day.  These are just a few of the incidents in the last few months I stayed there.  But this last incident happened today.
+I received a voice, from a new front office manager, telling me my room in October 2015 had been charged to a card of a person that said he DID NOT know me.  Kind of accusing me of stealing someone's card.  Then a follow up email to tell me they had figured it out and that their staff had actually accidentally charged another guest for my stay.  No...I have stayed regularly at this hotel for 3.5 years.  The last 6-9 months, the entire staff changed and customer service was almost non-existing with the exception of James.I understand that things break and certainly don't mind when I need to report it and have it fixed.  But when they wait until late afternoon to work on a broken refrigerator that you report at 7am and then stick your food in the freezer (that's how I knew, food was not frozen at 530) to try and save it, that is ridiculous.There was a live water bug crawling around the silverware drawer.  I get that they do everything they can not to have these things but when I called and asked someone to come and remove it as it was trapped under a glass (I am deathly afraid of them) it remained there until mid day the following day.  These are just a few of the incidents in the last few months I stayed there.  But this last incident happened today.I received a voice, from a new front office manager, telling me my room in October 2015 had been charged to a card of a person that said he DID NOT know me.  Kind of accusing me of stealing someone's card.  Then a follow up email to tell me they had figured it out and that their staff had actually accidentally charged another guest for my stay.  No "sorry for the confusion" or " sorry for the inconvenience of our mistake."  NOTHING.I will never stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r341298256-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>341298256</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>Fully updated, great staff, convenient location for event at Galleria and early Hobby flight</t>
+  </si>
+  <si>
+    <t>My husband and I stayed overnight at this property, in Room 114. We were in town for a wedding and I was looking for a reasonably priced property outside the Houston Marathon route, but that would be reasonably located to come from a wedding in the Galleria area, but that would split the difference to make an early flight at Hobby in the morning. This property was perfect - 10+ minutes from the Houstonian, and 15+ minutes to Hobby early on a Sunday morning. We had our own car, but my husband had to fly in and out.
+I read reviews here before booking and as far as Room 114 and the lobby were concerned, which was all we saw, this property is fully renovated and updated - so as to those that said it was old, tired, needed new carpet, I think those reviews are outdated. It caters to an extended stay clientele, and our room was huge, with sofa, full kitchen (I think - definitely a stove top and microwave, and maybe an oven), full sized refrigerator, cookware, dishes, etc. There was a desk, a tv that swiveled between facing the sofa, and facing the bed. The bed is a queen, comfortable, outfitted with lamps with electrical outlets on them on either side of the bed. (Thank you.) Perfectly nice bath area with separate room with toilet and tub/shower.
+There was a breakfast -- I didn't see it...My husband and I stayed overnight at this property, in Room 114. We were in town for a wedding and I was looking for a reasonably priced property outside the Houston Marathon route, but that would be reasonably located to come from a wedding in the Galleria area, but that would split the difference to make an early flight at Hobby in the morning. This property was perfect - 10+ minutes from the Houstonian, and 15+ minutes to Hobby early on a Sunday morning. We had our own car, but my husband had to fly in and out.I read reviews here before booking and as far as Room 114 and the lobby were concerned, which was all we saw, this property is fully renovated and updated - so as to those that said it was old, tired, needed new carpet, I think those reviews are outdated. It caters to an extended stay clientele, and our room was huge, with sofa, full kitchen (I think - definitely a stove top and microwave, and maybe an oven), full sized refrigerator, cookware, dishes, etc. There was a desk, a tv that swiveled between facing the sofa, and facing the bed. The bed is a queen, comfortable, outfitted with lamps with electrical outlets on them on either side of the bed. (Thank you.) Perfectly nice bath area with separate room with toilet and tub/shower.There was a breakfast -- I didn't see it but my husband seemed happy with the juice and bagel he grabbed on the way out -- and there were many more options.The staff here were very nice -- above and beyond types who would go out of their way to make sure you had what you needed.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>Yoyo P, Manager at Residence Inn Houston-West University, responded to this reviewResponded February 1, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 1, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed overnight at this property, in Room 114. We were in town for a wedding and I was looking for a reasonably priced property outside the Houston Marathon route, but that would be reasonably located to come from a wedding in the Galleria area, but that would split the difference to make an early flight at Hobby in the morning. This property was perfect - 10+ minutes from the Houstonian, and 15+ minutes to Hobby early on a Sunday morning. We had our own car, but my husband had to fly in and out.
+I read reviews here before booking and as far as Room 114 and the lobby were concerned, which was all we saw, this property is fully renovated and updated - so as to those that said it was old, tired, needed new carpet, I think those reviews are outdated. It caters to an extended stay clientele, and our room was huge, with sofa, full kitchen (I think - definitely a stove top and microwave, and maybe an oven), full sized refrigerator, cookware, dishes, etc. There was a desk, a tv that swiveled between facing the sofa, and facing the bed. The bed is a queen, comfortable, outfitted with lamps with electrical outlets on them on either side of the bed. (Thank you.) Perfectly nice bath area with separate room with toilet and tub/shower.
+There was a breakfast -- I didn't see it...My husband and I stayed overnight at this property, in Room 114. We were in town for a wedding and I was looking for a reasonably priced property outside the Houston Marathon route, but that would be reasonably located to come from a wedding in the Galleria area, but that would split the difference to make an early flight at Hobby in the morning. This property was perfect - 10+ minutes from the Houstonian, and 15+ minutes to Hobby early on a Sunday morning. We had our own car, but my husband had to fly in and out.I read reviews here before booking and as far as Room 114 and the lobby were concerned, which was all we saw, this property is fully renovated and updated - so as to those that said it was old, tired, needed new carpet, I think those reviews are outdated. It caters to an extended stay clientele, and our room was huge, with sofa, full kitchen (I think - definitely a stove top and microwave, and maybe an oven), full sized refrigerator, cookware, dishes, etc. There was a desk, a tv that swiveled between facing the sofa, and facing the bed. The bed is a queen, comfortable, outfitted with lamps with electrical outlets on them on either side of the bed. (Thank you.) Perfectly nice bath area with separate room with toilet and tub/shower.There was a breakfast -- I didn't see it but my husband seemed happy with the juice and bagel he grabbed on the way out -- and there were many more options.The staff here were very nice -- above and beyond types who would go out of their way to make sure you had what you needed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r314936899-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>314936899</t>
+  </si>
+  <si>
+    <t>09/29/2015</t>
+  </si>
+  <si>
+    <t>Quite Enjoyable</t>
+  </si>
+  <si>
+    <t>We stayed the weekend while visiting Houston. This hotel is really nice and conveniently located minutes from the freeway. All of the staff we interacted with were friendly, professional and helpful.Our King suite was clean and roomy.  Everything was perfect as we expect from Marriott properties.  We especially like having three distinct areas in the suite: a kitchen, living area and bedroom.We took advantage of the complimentary breakfast that included Texas shaped waffles, scrambled eggs, sausage, biscuits and gravy, fruit, yogurt, breads, fruit juices and cereals. We really didn't care for the eggs...not sure if they were powdered or microwaved.  Everything else was tasty.Overall, we had a great stay and we plan to stay here again when we're back in the Houston area.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed the weekend while visiting Houston. This hotel is really nice and conveniently located minutes from the freeway. All of the staff we interacted with were friendly, professional and helpful.Our King suite was clean and roomy.  Everything was perfect as we expect from Marriott properties.  We especially like having three distinct areas in the suite: a kitchen, living area and bedroom.We took advantage of the complimentary breakfast that included Texas shaped waffles, scrambled eggs, sausage, biscuits and gravy, fruit, yogurt, breads, fruit juices and cereals. We really didn't care for the eggs...not sure if they were powdered or microwaved.  Everything else was tasty.Overall, we had a great stay and we plan to stay here again when we're back in the Houston area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r303723512-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>303723512</t>
+  </si>
+  <si>
+    <t>08/26/2015</t>
+  </si>
+  <si>
+    <t>Helpful staff and convenient location but needs some improvements</t>
+  </si>
+  <si>
+    <t>We stayed at this Residence Inn property twice while helping our daughter move into the Rice University dorms.  The location is quiet and convenient if you have a rental car.  The free parking is great.  The staff are friendly and helpful, which is very positive.    The area is safe.  The room was adequate and fairly clean.  We didn't spend a lot of time in the room so it was fine.  They were working on some repairs of common area door locks.  The breakfast needs major improvement.  The food was not appetizing nor healthy.  It would be nice if granola were offered and some better quality fresh fruit.  Also, the tea selection was not great.  How about adding a few non-caffeinated herbal teas.  It appears that this property does not offer the complimentary evening snacks and beverages that other Residence Inns do.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>We stayed at this Residence Inn property twice while helping our daughter move into the Rice University dorms.  The location is quiet and convenient if you have a rental car.  The free parking is great.  The staff are friendly and helpful, which is very positive.    The area is safe.  The room was adequate and fairly clean.  We didn't spend a lot of time in the room so it was fine.  They were working on some repairs of common area door locks.  The breakfast needs major improvement.  The food was not appetizing nor healthy.  It would be nice if granola were offered and some better quality fresh fruit.  Also, the tea selection was not great.  How about adding a few non-caffeinated herbal teas.  It appears that this property does not offer the complimentary evening snacks and beverages that other Residence Inns do.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r299003047-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>299003047</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Just Average Hotel!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">They young man who checked me in was nice. This hotel needs to be updated. The rate for the hotel was good. It's in a nice area. Right near the express way! The hallway smelted nice. I wish the rooms did. It's nothing special. It's a Courtyard hotel right next door. </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r296925290-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>296925290</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>They're trying, and were a godsend to us in a time of need</t>
+  </si>
+  <si>
+    <t>My home experienced some flooding and needed a vast amount of repair. While it was getting fixed up we stayed here for about 2 weeks, and were taken care of greatly. Hotel was in need of some renovations itself (especially the carpets), but the staff helped us oversee that aspect with their great customer service. Since we live so close to this Hotel, it's hard not to send Friends and Family out there.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r279394309-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>279394309</t>
+  </si>
+  <si>
+    <t>06/10/2015</t>
+  </si>
+  <si>
+    <t>Good location, pet friendly</t>
+  </si>
+  <si>
+    <t>We stayed here as my daughter was relocating to Houston with her cat.  The location was convenient and easy to get in and out of.  As with most places, there are pros and cons.  Pros: Beds were clean. Staff was friendly. The hotel is pet friendly. Plenty of space in our suite. Had a kitchen area that was reasonably furnished. Plenty of closet/drawer space.  Cons:  Most TV stations were not working the entire stay and the staff didn't know the status other than the problem was being worked on. Because the suite was pet friendly, an overpowering deodorizer was used in the room and we had to open the windows to try make the air breathable.  Breakfast wasn't much - orange juice was watered down, coffee was bitter, and not much variety day to day with the breakfast offerings. The drawers in the bathroom area were not clean - hair left behind.  While I sound more negative than positive, I would definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here as my daughter was relocating to Houston with her cat.  The location was convenient and easy to get in and out of.  As with most places, there are pros and cons.  Pros: Beds were clean. Staff was friendly. The hotel is pet friendly. Plenty of space in our suite. Had a kitchen area that was reasonably furnished. Plenty of closet/drawer space.  Cons:  Most TV stations were not working the entire stay and the staff didn't know the status other than the problem was being worked on. Because the suite was pet friendly, an overpowering deodorizer was used in the room and we had to open the windows to try make the air breathable.  Breakfast wasn't much - orange juice was watered down, coffee was bitter, and not much variety day to day with the breakfast offerings. The drawers in the bathroom area were not clean - hair left behind.  While I sound more negative than positive, I would definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r277599687-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277599687</t>
+  </si>
+  <si>
+    <t>06/03/2015</t>
+  </si>
+  <si>
+    <t>Great Location &amp; Nice People</t>
+  </si>
+  <si>
+    <t>We have stayed there on numerous trips to Houston and recommend it to anyone wanting to be near Rice U and 59th &amp; Kirby area. Folks at the front desk are always helpful including changing my room on check-in to 1st floor near a doorway to accommodate my disabled wife. Breakfast is excellent and replenished often by pleasant hardworking people. Also the extra room from this all suite hotel is apprecated by us.i</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r277384311-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>277384311</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Lived here for 2 months while my home was being repaired!</t>
+  </si>
+  <si>
+    <t>We lived here in a two bedroom suite with our cat for two months while our home was being repaired due to flood damage.  The rooms are kept extremely clean by the housekeeping staff. From Monday to Wednesday in the evening they serve a light meal and complimentary beverages which is very nice.  They also serve a large breakfast (hot and cold buffet) every morning.  The food is very good and there is something for everyone! Plenty of seating available as well!  There is a small pool and hot tub and a small fitness room.  The staff was so kind and friendly, always willing to help! The managers Will and Angelo were especially helpful to me.There is a small stocked kitchenette in the suite and there are plenty of restaurants close by.  I would definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>We lived here in a two bedroom suite with our cat for two months while our home was being repaired due to flood damage.  The rooms are kept extremely clean by the housekeeping staff. From Monday to Wednesday in the evening they serve a light meal and complimentary beverages which is very nice.  They also serve a large breakfast (hot and cold buffet) every morning.  The food is very good and there is something for everyone! Plenty of seating available as well!  There is a small pool and hot tub and a small fitness room.  The staff was so kind and friendly, always willing to help! The managers Will and Angelo were especially helpful to me.There is a small stocked kitchenette in the suite and there are plenty of restaurants close by.  I would definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r263808959-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263808959</t>
+  </si>
+  <si>
+    <t>04/05/2015</t>
+  </si>
+  <si>
+    <t>Easter in Houston</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed  in a one bedroom suite which worked out great for us.  The staff was courteous and accommodating. The room was clean and quiet.  The bed was not so comfortable, a bit too firm. The mattress made noises when adjusting position in bed. The complementary breakfast had a good amount of hot and cold choices; there appeared to be plenty of room for guests to sit and eat. There are several restaurants nearby if one chooses not to use the kitchen in the suite for other meals.  The location is good and is only 15 minutes from downtown. I would stay at this location again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r263263425-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>263263425</t>
+  </si>
+  <si>
+    <t>04/02/2015</t>
+  </si>
+  <si>
+    <t>Very Nice Hotel, great staff, great location</t>
+  </si>
+  <si>
+    <t>Stayed here with Friends for several days.  Hotel is very convenient to the Highway and close to Rice.  There are many places to eat close by, along with a CVS.  Hotel is pretty close to NRG stadium also, and was an easy drive.  The rooms are nice and the breakfast buffet was always fully stocked with a great selection.  We enjoyed the Texas state shaped waffles.  The pool was nice, but small.  They also had a whirlpool.   We had a room with 2 bedrooms and a common area, which was nice for 2 couples.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r255643464-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>255643464</t>
+  </si>
+  <si>
+    <t>02/21/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel but suffering from a little Manana attitude</t>
+  </si>
+  <si>
+    <t>This is a very nice well maintained property in a good location. I have one quibble. When I arrived I was told there would be food and drink service from five to seven and the welcome book repeated this. I was to attend a tequila tasting program shortly after that and wished to have a little food for sustenance before I went.  I showed up in the lobby at five ready for a snack. The service area was dark and the desk clerk said the attendant was still preparing the food. I had to leave at  5:15 and at that time the attendant was still wandering around setting up with no food out. This is Houston, not Brownsvile or Del Rio. If the attendant is supposed to have the room open and ready at five he should be doing so and the management should be paying attention to see it happens.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a very nice well maintained property in a good location. I have one quibble. When I arrived I was told there would be food and drink service from five to seven and the welcome book repeated this. I was to attend a tequila tasting program shortly after that and wished to have a little food for sustenance before I went.  I showed up in the lobby at five ready for a snack. The service area was dark and the desk clerk said the attendant was still preparing the food. I had to leave at  5:15 and at that time the attendant was still wandering around setting up with no food out. This is Houston, not Brownsvile or Del Rio. If the attendant is supposed to have the room open and ready at five he should be doing so and the management should be paying attention to see it happens.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r246045863-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>246045863</t>
+  </si>
+  <si>
+    <t>12/27/2014</t>
+  </si>
+  <si>
+    <t>Almost Flawless</t>
+  </si>
+  <si>
+    <t>Our stay was almost flawless.  The room was spotless and quiet.  The staff was quick and considerate.  The lobby area and breakfast area looked brand new.  The only issue we had was that a previous resident had fouled the coffee machine by putting the little coffee bags in where the water was supposed to go.  I mentioned it to the front desk and the staff was very apologetic and credited my account with 1500 points.  It was obviously a previous resident that caused the problem, but a good housekeeper should have caught it.  I give this 5 stars because other than the little hiccup with the coffee machine this hotel was perfect.  I once paid over $400 for a Marriott room in Manhattan, and they did not even have a coffee machine in the room!!!  I would take this hotel over the one in Manhattan any time.  Five stars it is.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>Our stay was almost flawless.  The room was spotless and quiet.  The staff was quick and considerate.  The lobby area and breakfast area looked brand new.  The only issue we had was that a previous resident had fouled the coffee machine by putting the little coffee bags in where the water was supposed to go.  I mentioned it to the front desk and the staff was very apologetic and credited my account with 1500 points.  It was obviously a previous resident that caused the problem, but a good housekeeper should have caught it.  I give this 5 stars because other than the little hiccup with the coffee machine this hotel was perfect.  I once paid over $400 for a Marriott room in Manhattan, and they did not even have a coffee machine in the room!!!  I would take this hotel over the one in Manhattan any time.  Five stars it is.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r239956526-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>239956526</t>
+  </si>
+  <si>
+    <t>11/15/2014</t>
+  </si>
+  <si>
+    <t>Loved it!!!!</t>
+  </si>
+  <si>
+    <t>This us one of the nicest hotels we've had the pleasure of staying at! We booked a "suite", which had a queen bed, sofa sleeper, full sz kitchen, stocked w/dishes. The room was like staying in a luxury apt. Immaculately clean, &amp; tastefully decorated. Everyone of the staff was exceptionally warm, friendly &amp; always smiling! All of them! It was a very enjoyable stay, &amp; we would highly recommend it!PS The "hot" breakfast was a fabulous spread of scrambled eggs, sausage, muffins, bagels, fruit, yogurt, waffles, cooked oatmeal,etc!! Best breakfast we've been served at a hotel!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r233192380-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>233192380</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Loved it!!!!!!!!</t>
+  </si>
+  <si>
+    <t>I loved everything about this Hotel from the spacious living space to the equipped kitchen. Very large closet,TV in both rooms ,very clean and quite. The only down side is you have to  go completely outside to get to the front desk if I would have had to go to the desk after dark I would have been a bit uncomfortable with that. This is the place to go for a long stay unfortunately my stay was just an overnight one.</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r219419268-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>219419268</t>
+  </si>
+  <si>
+    <t>08/04/2014</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This was my first booking at this hotel. It was a pleasent experience for the entire stay. The only reason they didnt get the 5 stars is because our room had a foul smell (somewhat like urine). I checked the beds for stains but the smell came from the closet. It wasn't pleasent but it was bearable. I still bought some deodorizers.The staff was courteous and very nice. The breakfast bar was outstanding. We will definitely book here again on our next trip to Houston.</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r215734735-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>215734735</t>
+  </si>
+  <si>
+    <t>07/16/2014</t>
+  </si>
+  <si>
+    <t>Clean, Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>Stayed two nights at this Residence Inn.  Great room with full kitchen.  I really enjoyed the breakfast which was much more than just eggs and toast (the fresh fruit was a plus).  We had the complimentary "dinner" on a Monday night, and the chicken, rice and fresh salad was good (big plus with free beer and wine).  The pool area does not receive much sun, so we were able to use the pool at the Courtyard next door (very nice pool area).  The exercise room was sufficient and clean.  All staff we encountered were pleasant and helpful.I've seen this complaint before and I will restate that we did not have an ice-maker in the freezer in our room, and there is no ice available anywhere in the hotel.  We had to go to the Courtyard to get the ice!  The hotel is only 1.5 miles from Rice Village, where we visit often for dinner and shopping when we're in town.  There is a Goode Seafood restaurant a short walk away.  Only a 10 minute drive to MD Anderson.Excellent stay for $98!  We visit Houston 4 times annually, and this will be our new go-to hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>Stayed two nights at this Residence Inn.  Great room with full kitchen.  I really enjoyed the breakfast which was much more than just eggs and toast (the fresh fruit was a plus).  We had the complimentary "dinner" on a Monday night, and the chicken, rice and fresh salad was good (big plus with free beer and wine).  The pool area does not receive much sun, so we were able to use the pool at the Courtyard next door (very nice pool area).  The exercise room was sufficient and clean.  All staff we encountered were pleasant and helpful.I've seen this complaint before and I will restate that we did not have an ice-maker in the freezer in our room, and there is no ice available anywhere in the hotel.  We had to go to the Courtyard to get the ice!  The hotel is only 1.5 miles from Rice Village, where we visit often for dinner and shopping when we're in town.  There is a Goode Seafood restaurant a short walk away.  Only a 10 minute drive to MD Anderson.Excellent stay for $98!  We visit Houston 4 times annually, and this will be our new go-to hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r214505318-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>214505318</t>
+  </si>
+  <si>
+    <t>07/09/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Really nice hotel, much recommend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here in June 2014 for a few nights with friends. We had a 2 double bedroom booked and got complimentary upgraded to a suite which was very kind and much appreciated! Breakfast was nice and all staff were helpful and friendly. Nice establishment! Will stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r200523241-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>200523241</t>
+  </si>
+  <si>
+    <t>04/09/2014</t>
+  </si>
+  <si>
+    <t>Nice!</t>
+  </si>
+  <si>
+    <t>Fit our needs for a weekend in Houston!  Plenty of room with a kitchenette.  Did not use pool or other things.  It is very close to downtown and sports complexes.  Would stay here again if needed room near these locations at a reasonable rate!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r197030994-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>197030994</t>
+  </si>
+  <si>
+    <t>03/11/2014</t>
+  </si>
+  <si>
+    <t>One of the nicer Residence Inn hotels</t>
+  </si>
+  <si>
+    <t>I stayed here for a week and it was a great hotel.  The setup was great, rooms were standard size, the staff was awesome and the food they put out was really good as well.  The only reason I left this hotel was to stay closer to my client and it was for convenience only.  This hotel was closer the the downtown area and also closer to all the bars and restaurants.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r194274595-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>194274595</t>
+  </si>
+  <si>
+    <t>02/16/2014</t>
+  </si>
+  <si>
+    <t>Nice Hotel--Friendly Staff</t>
+  </si>
+  <si>
+    <t>A three night stay at the completely booked Residence Inn Houston West University started with an arrival around 9:30 pm on a cold rainy night.  The hotel was over-booked and my business partner and I were lucky/pleased that instead of moving us to the Courtyard (next door), they upgraded us each to two-bedroom units.  We certainly didn't need that much room but after a long day it was nice to get checked in and have the comforts of a Residence Inn.  The room was clean and comfortable and completely in-line with the expectations that I have of Residence Inns.  The breakfast (complimentary) was a little crowded on two of the mornings, but we had no problem finding a table.  It seemed that the staff serving breakfast was a little under-staffed as they worked to keep the food coming and the area clean, but that is to be expected when you are completely full.    Easy access to downtown Houston (although the traffic is tough in this town) which was about 4 miles away from where we were working.  Lots of fast food and one awesome seafood place-the Goode Company Seafood Restaurant (http://www.goodecompany.com/restaurant-seafood1.asp) - where I could have eaten every night!MoreShow less</t>
+  </si>
+  <si>
+    <t>A three night stay at the completely booked Residence Inn Houston West University started with an arrival around 9:30 pm on a cold rainy night.  The hotel was over-booked and my business partner and I were lucky/pleased that instead of moving us to the Courtyard (next door), they upgraded us each to two-bedroom units.  We certainly didn't need that much room but after a long day it was nice to get checked in and have the comforts of a Residence Inn.  The room was clean and comfortable and completely in-line with the expectations that I have of Residence Inns.  The breakfast (complimentary) was a little crowded on two of the mornings, but we had no problem finding a table.  It seemed that the staff serving breakfast was a little under-staffed as they worked to keep the food coming and the area clean, but that is to be expected when you are completely full.    Easy access to downtown Houston (although the traffic is tough in this town) which was about 4 miles away from where we were working.  Lots of fast food and one awesome seafood place-the Goode Company Seafood Restaurant (http://www.goodecompany.com/restaurant-seafood1.asp) - where I could have eaten every night!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r193210980-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>193210980</t>
+  </si>
+  <si>
+    <t>02/05/2014</t>
+  </si>
+  <si>
+    <t>Won't stay here again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I was enticed by the price...$105 for a weekend night. But this was no typical Residence/Marriott. Old, stale decor...confused front desk...dark parking lots...noisy elevators. There is no drive-up entrance so you may have to park far from the lobby to check in. Walked into my guest room and got slapped by floral taxi cab air-freshner stench. Overwhelmingly strong...I finally located the air freshner...it was hanging on the INSIDE of the air handling vent. Had to unscrew the vent cover and get it out. Old stained carpets, loose floorboards in the kitchenette. All in all a disappointing stay for a Marriott. Wish I had tried elsewhere.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r188600204-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>188600204</t>
+  </si>
+  <si>
+    <t>12/26/2013</t>
+  </si>
+  <si>
+    <t>Good if You Don't Mind Some Dust</t>
+  </si>
+  <si>
+    <t>First off, the Residence Inn model is wonderful for families.  The two-bedroom suite with kitchen was great for our family of four, and the breakfast buffet very convenient.  (My kids loved the make-your-own waffle station.)  The location is close to the medical center and Rice University/ Rice Village, and reasonably convenient to the Galleria.  We generally stay here when we have several scattered friends/ family members to visit, as it offers easy access to the major highways.However, like other RI properties, the place appears to have a cleanliness problem.  We found a few month's worth of dust in the corner of the living room, a half-eaten M&amp;M on the carpet, and a half-cleaned up spill in one corner of the kitchen.  There was also a loose floorboard in the kitchen.  The front desk was apologetic when we checked out, but we weren't offered anything besides.  We'd stay here again just for the location, but maybe bring a dust buster with us.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>First off, the Residence Inn model is wonderful for families.  The two-bedroom suite with kitchen was great for our family of four, and the breakfast buffet very convenient.  (My kids loved the make-your-own waffle station.)  The location is close to the medical center and Rice University/ Rice Village, and reasonably convenient to the Galleria.  We generally stay here when we have several scattered friends/ family members to visit, as it offers easy access to the major highways.However, like other RI properties, the place appears to have a cleanliness problem.  We found a few month's worth of dust in the corner of the living room, a half-eaten M&amp;M on the carpet, and a half-cleaned up spill in one corner of the kitchen.  There was also a loose floorboard in the kitchen.  The front desk was apologetic when we checked out, but we weren't offered anything besides.  We'd stay here again just for the location, but maybe bring a dust buster with us.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r183841178-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>183841178</t>
+  </si>
+  <si>
+    <t>11/06/2013</t>
+  </si>
+  <si>
+    <t>Interesting stay</t>
+  </si>
+  <si>
+    <t>We were in Houston for my GF to qualify as a Running Instructor when we stayed here. First morning we were kicked out when all the fire alarms went off and weren't allowed back in until the Fire crews said so.This is a great Residence in in a superb location to access Houston. The staff treated us like royalty and we truly felt welcomed here. The suite was just that little bit more comfortable than many we'd stayed in. Everything was really "just right".When I go to Houston again, I will stay here again.</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r167931991-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167931991</t>
+  </si>
+  <si>
+    <t>07/17/2013</t>
+  </si>
+  <si>
+    <t>Amazing staff!</t>
+  </si>
+  <si>
+    <t>This hotel was perfect. It's less than 2 miles from the Museum District, so everything we wanted to see was close by. The hotel is very clean and quiet, it's set back away from the freeway, so you don't hear any road noise. We stayed for two days, and the young lady at the front desk always greeted us upon leaving or returning. Instead of the standard "hello", we were greeted with "hey, welcome back!" or "how was your trip to the museum?" Very personalized! The hotel has a nice little bistro that has a Starbucks inside. We took advantage of the 24 hr convenience store located at the front desk. It was nice to be able to go downstairs and have access food and drink at al hours. I will definitely stay at this hotel on my next trip to HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>This hotel was perfect. It's less than 2 miles from the Museum District, so everything we wanted to see was close by. The hotel is very clean and quiet, it's set back away from the freeway, so you don't hear any road noise. We stayed for two days, and the young lady at the front desk always greeted us upon leaving or returning. Instead of the standard "hello", we were greeted with "hey, welcome back!" or "how was your trip to the museum?" Very personalized! The hotel has a nice little bistro that has a Starbucks inside. We took advantage of the 24 hr convenience store located at the front desk. It was nice to be able to go downstairs and have access food and drink at al hours. I will definitely stay at this hotel on my next trip to HoustonMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r167102153-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>167102153</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t>Barring this  hotel being pretty hard to find (though it is pretty much off the freeway), it was a good nights stay. The parking is kind of kooky; and the fact that  there is a Courtyard Marriott practically attached to it is a little confusing.There was a mix-up at the front desk at checkin, but by checkout it was resolved, and the front desk staff was personable and friendly.The room was "residence inn" standard; and the beds were comfy and inviting.We shopped at a Whole Foods market not too many blocks away, in a very "trendy" upscale block of shops/restaurants..etc; there is also a grocery store a few blocks away.Very filling breakfast.Unfortunately, I didn't have time for the pool (if there is one.)If by chance you get lost (as we did on a very wet, rainy June evening), you can drive up and down some beautiful stately homes and tree-shaded avenues near the University. Each home is very well kept and architecturally different.And we were surprised to see just before the turnoff on the major freeway...there was Joel Osteen's mega church Lakewood Church...right off the freeway. And it did look mega!!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Barring this  hotel being pretty hard to find (though it is pretty much off the freeway), it was a good nights stay. The parking is kind of kooky; and the fact that  there is a Courtyard Marriott practically attached to it is a little confusing.There was a mix-up at the front desk at checkin, but by checkout it was resolved, and the front desk staff was personable and friendly.The room was "residence inn" standard; and the beds were comfy and inviting.We shopped at a Whole Foods market not too many blocks away, in a very "trendy" upscale block of shops/restaurants..etc; there is also a grocery store a few blocks away.Very filling breakfast.Unfortunately, I didn't have time for the pool (if there is one.)If by chance you get lost (as we did on a very wet, rainy June evening), you can drive up and down some beautiful stately homes and tree-shaded avenues near the University. Each home is very well kept and architecturally different.And we were surprised to see just before the turnoff on the major freeway...there was Joel Osteen's mega church Lakewood Church...right off the freeway. And it did look mega!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r166529782-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>166529782</t>
+  </si>
+  <si>
+    <t>07/06/2013</t>
+  </si>
+  <si>
+    <t>Great staff &amp; comfortable stay</t>
+  </si>
+  <si>
+    <t>The staff was excellent especially Dominic at the front desk, going above and beyond to make us feel at home. Breakfast was good and fresh, with a July 4th special red white blue yogurt snack. Nice and clean pool was lots of fun for the kids. Lakewood church , pastor Joel osteen's, a few minutes away was a bonus stop over.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r160365364-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>160365364</t>
+  </si>
+  <si>
+    <t>05/11/2013</t>
+  </si>
+  <si>
+    <t>Comfortable Stay, Dated Kitchenette</t>
+  </si>
+  <si>
+    <t>In comparison to other Residence Inns, the kitchenette could do a bit of updating in regards to appliances and decor.  Common areas are clean and uptodate.  Staff is attentive and friendly.  The included breakfast is standard for RI.  I appreciated the free WSJ.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r159569399-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>159569399</t>
+  </si>
+  <si>
+    <t>05/03/2013</t>
+  </si>
+  <si>
+    <t>Home away from home</t>
+  </si>
+  <si>
+    <t>The Residence Inn Houston West University is an excellent hotel. The hotel is conveniently located to MD Anderson. There is a shuttle which will take guests back and forth to the hospital. The drivers are all very courteous and patient. The staff are all very friendly and compassionate. We have been staying on and off here for over a year and a half, and do not have one complaint. The front desk staff all recognize us and actually come out from behind the desk to hug us. They really make us feel as if we are at home. They serve breakfast in the morning, and a light dinner 5 nights a week. There is a Starbucks within walking distance, and a Kroger within 2 blocks. Even though this is not a 5 star hotel, I would choose this over one because of the friendly staff and it's location. The shuttle will also take you to Rice Village, and the Galleria Mall.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>The Residence Inn Houston West University is an excellent hotel. The hotel is conveniently located to MD Anderson. There is a shuttle which will take guests back and forth to the hospital. The drivers are all very courteous and patient. The staff are all very friendly and compassionate. We have been staying on and off here for over a year and a half, and do not have one complaint. The front desk staff all recognize us and actually come out from behind the desk to hug us. They really make us feel as if we are at home. They serve breakfast in the morning, and a light dinner 5 nights a week. There is a Starbucks within walking distance, and a Kroger within 2 blocks. Even though this is not a 5 star hotel, I would choose this over one because of the friendly staff and it's location. The shuttle will also take you to Rice Village, and the Galleria Mall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r157011512-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>157011512</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>Excellent choice for long term stays</t>
+  </si>
+  <si>
+    <t>The Residence Inn is an excellent choice for long term stays if you are needing to visit the Medical Center or work at Greenway Plaza.  The location is convenient even though the proximity to more industrial surroundings are a little uncomfortable.  The rooms are comfortable and have all of the amenities needed for extended stays.  The staff is very warm and welcoming and eager to please.  The breakfast is not extremely diverse with food but is filling.  The evening foods are a good substitute for quick snacks either for dinner or before dinner.  The proximity to the Marriott Courtyard also gives you the opportunity to take advantage of their restaurants.  There are a number of good restaurants in the area along with most other support services - grocery stores, dry cleaners, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>The Residence Inn is an excellent choice for long term stays if you are needing to visit the Medical Center or work at Greenway Plaza.  The location is convenient even though the proximity to more industrial surroundings are a little uncomfortable.  The rooms are comfortable and have all of the amenities needed for extended stays.  The staff is very warm and welcoming and eager to please.  The breakfast is not extremely diverse with food but is filling.  The evening foods are a good substitute for quick snacks either for dinner or before dinner.  The proximity to the Marriott Courtyard also gives you the opportunity to take advantage of their restaurants.  There are a number of good restaurants in the area along with most other support services - grocery stores, dry cleaners, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r150136250-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>150136250</t>
+  </si>
+  <si>
+    <t>01/20/2013</t>
+  </si>
+  <si>
+    <t>not what I normally get from Marriott at their Residence Inns</t>
+  </si>
+  <si>
+    <t>I am a Marriott fan, if it is up to me every trip I take I would stay at Marriotts.  I travel over 100 days a year for work and this time around I took the weekend off and went to Houston.  I chose this hotel because normally Residence Inns are superb, but not this one!  The bed and pillows were very uncomfortable, they needed replacement, the phone didn´t work, the TV stand did not swivel therefore you had to watch TV only in the living room but not in bed, etc.  I had to ask them twice to fix everything and they didn´t.  Breakfast is good though,and that is just the only good thing I have to say about the hotel.  Ohh and the AC is tremendously noisy.  I think I would recommend to look elsewhereMoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>I am a Marriott fan, if it is up to me every trip I take I would stay at Marriotts.  I travel over 100 days a year for work and this time around I took the weekend off and went to Houston.  I chose this hotel because normally Residence Inns are superb, but not this one!  The bed and pillows were very uncomfortable, they needed replacement, the phone didn´t work, the TV stand did not swivel therefore you had to watch TV only in the living room but not in bed, etc.  I had to ask them twice to fix everything and they didn´t.  Breakfast is good though,and that is just the only good thing I have to say about the hotel.  Ohh and the AC is tremendously noisy.  I think I would recommend to look elsewhereMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r149363713-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149363713</t>
+  </si>
+  <si>
+    <t>01/10/2013</t>
+  </si>
+  <si>
+    <t>Avoid this hotel</t>
+  </si>
+  <si>
+    <t>While the staff was friendly, the hotel is run down and in severe need of an upgrade.  We almost checked out, but stayed due to inertia.  We were only there 3 days.  Not a great Marriott experience.We had to have a technician show us how to turn on the gas fireplace.  Houston this time of year is normally pretty warm, but while we were there the temperature was in the 50's.  Cold.  The on/off switch is hidden, I think because the management doesn't want people to use the fireplace. Also, since we were there for the holiday (New Years), no one made up the room.  They only supplied clean towels.  Not a big deal, but that comes with the price of the room, don't you think?The kitchen floor was cracked and buckled.  The drapes had bare spots that let the light through.  The furniture was dated and uncomfortable.  And saving the worst for last, the beds (advertised and requested 2 queen size), were full size at best.  If they were queen, they must have been from 50 years ago when the average hight was 5'5".  All in all, not a great experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>While the staff was friendly, the hotel is run down and in severe need of an upgrade.  We almost checked out, but stayed due to inertia.  We were only there 3 days.  Not a great Marriott experience.We had to have a technician show us how to turn on the gas fireplace.  Houston this time of year is normally pretty warm, but while we were there the temperature was in the 50's.  Cold.  The on/off switch is hidden, I think because the management doesn't want people to use the fireplace. Also, since we were there for the holiday (New Years), no one made up the room.  They only supplied clean towels.  Not a big deal, but that comes with the price of the room, don't you think?The kitchen floor was cracked and buckled.  The drapes had bare spots that let the light through.  The furniture was dated and uncomfortable.  And saving the worst for last, the beds (advertised and requested 2 queen size), were full size at best.  If they were queen, they must have been from 50 years ago when the average hight was 5'5".  All in all, not a great experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r149224209-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>149224209</t>
+  </si>
+  <si>
+    <t>01/08/2013</t>
+  </si>
+  <si>
+    <t>Good choice</t>
+  </si>
+  <si>
+    <t>We stayed here for one night following a friend's wedding.  Most of the others from the wedding were staying here, so we decided to move here to spend a few hours with them in the evening following the festivities.  The hotel looks very nice from the outside and is convenient (with a car) to a lot of local establishments.  Check-in took forever.  I, of course, am saying that figuratively, but with over 1000 nights stayed in hotels over the past 7 years, I have never spent 30 minutes checking into a hotel, even during peak season in popular places.  The room was nice and as expected for a Residence Inn. It was clean, well maintained and overall very nice.  I should note that the employees were all very nice.  However, I cannot give it 5 stars due to that service issue at the beginning of our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>We stayed here for one night following a friend's wedding.  Most of the others from the wedding were staying here, so we decided to move here to spend a few hours with them in the evening following the festivities.  The hotel looks very nice from the outside and is convenient (with a car) to a lot of local establishments.  Check-in took forever.  I, of course, am saying that figuratively, but with over 1000 nights stayed in hotels over the past 7 years, I have never spent 30 minutes checking into a hotel, even during peak season in popular places.  The room was nice and as expected for a Residence Inn. It was clean, well maintained and overall very nice.  I should note that the employees were all very nice.  However, I cannot give it 5 stars due to that service issue at the beginning of our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r146141245-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>146141245</t>
+  </si>
+  <si>
+    <t>11/25/2012</t>
+  </si>
+  <si>
+    <t>A very good short stay...........</t>
+  </si>
+  <si>
+    <t>Was booked in here for 4 week stay but due to office location had to move after 4 days to minimise the daily commute.
+I stayed in an excellent spotlessly clean Queen Suite room on third floor with opening windows (yes you can open for fresh air!), daily housekeeping and with everything else required to make a long stay enjoyable.  The local shopping centre about 500m west on Westpark Drive has everything that you need in the way of essentials with a great Kroger supermarket and another huge supermarket located behind the Starbucks on the corner.  Also an Italian restaurant and Fish Grill.  Both are great places to eat out.  The Residence runs a shuttle bus to Galleria and a few other places downtown.  I had a car so getting about was no problem.  If you plan to go the Galleria (along with the rest of Texas) take the bus as parking can be a real challenge.  Otherwise this Residence is in a good location with easy access to begin journeys in any direction.  And it is on the edge of the very nice leafy and friendly neighbourhood of West University so an early morning run or walk is no problem.  Just ask at reception for the running circuit map.
+The staff were very helpful and whislt not a 5 star 'hotel' the whole place is immaculately maintained.
+Would definately stay here again both for long and short term and...Was booked in here for 4 week stay but due to office location had to move after 4 days to minimise the daily commute.I stayed in an excellent spotlessly clean Queen Suite room on third floor with opening windows (yes you can open for fresh air!), daily housekeeping and with everything else required to make a long stay enjoyable.  The local shopping centre about 500m west on Westpark Drive has everything that you need in the way of essentials with a great Kroger supermarket and another huge supermarket located behind the Starbucks on the corner.  Also an Italian restaurant and Fish Grill.  Both are great places to eat out.  The Residence runs a shuttle bus to Galleria and a few other places downtown.  I had a car so getting about was no problem.  If you plan to go the Galleria (along with the rest of Texas) take the bus as parking can be a real challenge.  Otherwise this Residence is in a good location with easy access to begin journeys in any direction.  And it is on the edge of the very nice leafy and friendly neighbourhood of West University so an early morning run or walk is no problem.  Just ask at reception for the running circuit map.The staff were very helpful and whislt not a 5 star 'hotel' the whole place is immaculately maintained.Would definately stay here again both for long and short term and certainly recommend to others seeking clean, budget prices accommodation.  Certianly felt comfortable here more so than in many of the 5 start 'glamour palace' hotels that I have stayed and have now had this location placed onto our company's preferred places to stay list.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Was booked in here for 4 week stay but due to office location had to move after 4 days to minimise the daily commute.
+I stayed in an excellent spotlessly clean Queen Suite room on third floor with opening windows (yes you can open for fresh air!), daily housekeeping and with everything else required to make a long stay enjoyable.  The local shopping centre about 500m west on Westpark Drive has everything that you need in the way of essentials with a great Kroger supermarket and another huge supermarket located behind the Starbucks on the corner.  Also an Italian restaurant and Fish Grill.  Both are great places to eat out.  The Residence runs a shuttle bus to Galleria and a few other places downtown.  I had a car so getting about was no problem.  If you plan to go the Galleria (along with the rest of Texas) take the bus as parking can be a real challenge.  Otherwise this Residence is in a good location with easy access to begin journeys in any direction.  And it is on the edge of the very nice leafy and friendly neighbourhood of West University so an early morning run or walk is no problem.  Just ask at reception for the running circuit map.
+The staff were very helpful and whislt not a 5 star 'hotel' the whole place is immaculately maintained.
+Would definately stay here again both for long and short term and...Was booked in here for 4 week stay but due to office location had to move after 4 days to minimise the daily commute.I stayed in an excellent spotlessly clean Queen Suite room on third floor with opening windows (yes you can open for fresh air!), daily housekeeping and with everything else required to make a long stay enjoyable.  The local shopping centre about 500m west on Westpark Drive has everything that you need in the way of essentials with a great Kroger supermarket and another huge supermarket located behind the Starbucks on the corner.  Also an Italian restaurant and Fish Grill.  Both are great places to eat out.  The Residence runs a shuttle bus to Galleria and a few other places downtown.  I had a car so getting about was no problem.  If you plan to go the Galleria (along with the rest of Texas) take the bus as parking can be a real challenge.  Otherwise this Residence is in a good location with easy access to begin journeys in any direction.  And it is on the edge of the very nice leafy and friendly neighbourhood of West University so an early morning run or walk is no problem.  Just ask at reception for the running circuit map.The staff were very helpful and whislt not a 5 star 'hotel' the whole place is immaculately maintained.Would definately stay here again both for long and short term and certainly recommend to others seeking clean, budget prices accommodation.  Certianly felt comfortable here more so than in many of the 5 start 'glamour palace' hotels that I have stayed and have now had this location placed onto our company's preferred places to stay list.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r145336857-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>145336857</t>
+  </si>
+  <si>
+    <t>11/13/2012</t>
+  </si>
+  <si>
+    <t>Good Breakfast and Happy Hour Food; Convenient location and quiet</t>
+  </si>
+  <si>
+    <t>My family has stayed at the Residence Inn West University for various periods over the past few years while my mother received treatments at MD Anderson. We always appreciate the convenience of having the breakfast buffet downstairs, and the dinner happy hour food (which for us can be a dinner) since it comes with salad and a dish of some sort + drinks. The staff is usually very friendly, and we also like the free shuttle to MD Anderson. We think that rooms are in need of an update... they are getting a little worn looking, but they have already updated the lobby area, so we assume this is coming soon.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>My family has stayed at the Residence Inn West University for various periods over the past few years while my mother received treatments at MD Anderson. We always appreciate the convenience of having the breakfast buffet downstairs, and the dinner happy hour food (which for us can be a dinner) since it comes with salad and a dish of some sort + drinks. The staff is usually very friendly, and we also like the free shuttle to MD Anderson. We think that rooms are in need of an update... they are getting a little worn looking, but they have already updated the lobby area, so we assume this is coming soon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r136294988-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>136294988</t>
+  </si>
+  <si>
+    <t>08/05/2012</t>
+  </si>
+  <si>
+    <t>West U Residence Inn - Home away from Home</t>
+  </si>
+  <si>
+    <t>We were between the sale of a home and move-in of a new one.  We needed a place to stay for anywhere from 4 to 6 weeks, one that would permit a pet and have cooking facilities in-room.  After considerable searching, we chose to stay at the Marriott Residence Inn on Westpark Drive in Houston.  It was an excellent choice.  The room had a thoughtfully equipped kitchen (full fridge w/ice maker, adequate stove top, microwave, dishwasher, toaster, coffee maker, full cooking/kitchen utensils and dining dishes/utensils, glassware,  kitchen linens, napkins, paper towels, etc).  There was a kitchen bar area for eating.  The living area had a working desk, TV, couch and stuffed chair.  The king size bed was VERY comfortable.  The generous number of pillows and bed linens wonderful!  The bath room was efficient and bath linens very nice and generous.  We had a clothes closet as well as another "storage/coat" closet near the front door.   The front desk and ALL staff were courteous, accommodating, friendly and helpful.  Our refrigerator died during our stay and they immediately - on a Sunday evening -  (within 15 minutes!) - brought in a replacement fridge, transferred our food and frozen items and wheeled the ailing fridge out in record time.  I could not believe it.  
+We were able to conveniently park within steps of the entry.  The halls, common areas and laundry area were immaculately clean.  They had a wonderful buffet breakfast every morning...We were between the sale of a home and move-in of a new one.  We needed a place to stay for anywhere from 4 to 6 weeks, one that would permit a pet and have cooking facilities in-room.  After considerable searching, we chose to stay at the Marriott Residence Inn on Westpark Drive in Houston.  It was an excellent choice.  The room had a thoughtfully equipped kitchen (full fridge w/ice maker, adequate stove top, microwave, dishwasher, toaster, coffee maker, full cooking/kitchen utensils and dining dishes/utensils, glassware,  kitchen linens, napkins, paper towels, etc).  There was a kitchen bar area for eating.  The living area had a working desk, TV, couch and stuffed chair.  The king size bed was VERY comfortable.  The generous number of pillows and bed linens wonderful!  The bath room was efficient and bath linens very nice and generous.  We had a clothes closet as well as another "storage/coat" closet near the front door.   The front desk and ALL staff were courteous, accommodating, friendly and helpful.  Our refrigerator died during our stay and they immediately - on a Sunday evening -  (within 15 minutes!) - brought in a replacement fridge, transferred our food and frozen items and wheeled the ailing fridge out in record time.  I could not believe it.  We were able to conveniently park within steps of the entry.  The halls, common areas and laundry area were immaculately clean.  They had a wonderful buffet breakfast every morning (great eggs, bacon, oatmeal, etc.) that my husband took full advantage of.  There also were "happy hours" each week day evening with generous finger food that one could use as a supper if needed.  Pets were thoughtfully provided for with a dedicated pet walking area.  We felt safe in walking around the property.  It is very conveniently located to Houston highways, med center, downtown and the galleria.  There are good restaurants and grocery stores within walking distance.  This was an excellent, excellent choice for us and is an exceedingly well run Inn.  The highest compliments to the management and all staff are well deserved!  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>We were between the sale of a home and move-in of a new one.  We needed a place to stay for anywhere from 4 to 6 weeks, one that would permit a pet and have cooking facilities in-room.  After considerable searching, we chose to stay at the Marriott Residence Inn on Westpark Drive in Houston.  It was an excellent choice.  The room had a thoughtfully equipped kitchen (full fridge w/ice maker, adequate stove top, microwave, dishwasher, toaster, coffee maker, full cooking/kitchen utensils and dining dishes/utensils, glassware,  kitchen linens, napkins, paper towels, etc).  There was a kitchen bar area for eating.  The living area had a working desk, TV, couch and stuffed chair.  The king size bed was VERY comfortable.  The generous number of pillows and bed linens wonderful!  The bath room was efficient and bath linens very nice and generous.  We had a clothes closet as well as another "storage/coat" closet near the front door.   The front desk and ALL staff were courteous, accommodating, friendly and helpful.  Our refrigerator died during our stay and they immediately - on a Sunday evening -  (within 15 minutes!) - brought in a replacement fridge, transferred our food and frozen items and wheeled the ailing fridge out in record time.  I could not believe it.  
+We were able to conveniently park within steps of the entry.  The halls, common areas and laundry area were immaculately clean.  They had a wonderful buffet breakfast every morning...We were between the sale of a home and move-in of a new one.  We needed a place to stay for anywhere from 4 to 6 weeks, one that would permit a pet and have cooking facilities in-room.  After considerable searching, we chose to stay at the Marriott Residence Inn on Westpark Drive in Houston.  It was an excellent choice.  The room had a thoughtfully equipped kitchen (full fridge w/ice maker, adequate stove top, microwave, dishwasher, toaster, coffee maker, full cooking/kitchen utensils and dining dishes/utensils, glassware,  kitchen linens, napkins, paper towels, etc).  There was a kitchen bar area for eating.  The living area had a working desk, TV, couch and stuffed chair.  The king size bed was VERY comfortable.  The generous number of pillows and bed linens wonderful!  The bath room was efficient and bath linens very nice and generous.  We had a clothes closet as well as another "storage/coat" closet near the front door.   The front desk and ALL staff were courteous, accommodating, friendly and helpful.  Our refrigerator died during our stay and they immediately - on a Sunday evening -  (within 15 minutes!) - brought in a replacement fridge, transferred our food and frozen items and wheeled the ailing fridge out in record time.  I could not believe it.  We were able to conveniently park within steps of the entry.  The halls, common areas and laundry area were immaculately clean.  They had a wonderful buffet breakfast every morning (great eggs, bacon, oatmeal, etc.) that my husband took full advantage of.  There also were "happy hours" each week day evening with generous finger food that one could use as a supper if needed.  Pets were thoughtfully provided for with a dedicated pet walking area.  We felt safe in walking around the property.  It is very conveniently located to Houston highways, med center, downtown and the galleria.  There are good restaurants and grocery stores within walking distance.  This was an excellent, excellent choice for us and is an exceedingly well run Inn.  The highest compliments to the management and all staff are well deserved!  Thank you!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r133209846-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>133209846</t>
+  </si>
+  <si>
+    <t>07/01/2012</t>
+  </si>
+  <si>
+    <t>Houston - Residence Inn Houston West University</t>
+  </si>
+  <si>
+    <t>I travel to Houston monthly for business and this place is great! Very friendly staff and great customer service.  I highly recommend this hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r131503157-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131503157</t>
+  </si>
+  <si>
+    <t>06/07/2012</t>
+  </si>
+  <si>
+    <t>Always nice</t>
+  </si>
+  <si>
+    <t>We have stayed at this Residence Inn three times in the last two years, while visiting Rice University and family in Houston; the first visit on September 2010, the latest visit in May 2012. The rooms are clean and comfortable, as well as the bathroom and kitchen area of the one bedroom suite. We've stayed in first floor rooms near the side entrance to the hotel, near the patio area, which is very convenient for parking. The hotel is located within driving distance to a Kroger supermarket and other shops. During our first visit in 2010 we stayed in a pet friendly room with a cat. That room was also very clean and no evidence or smells of prior furry guests. The housekeeping staff were wonderful in locating our pet's favorite blanket which we inadvertently left behind. The breakfast area is very clean and the food items are more than adequate, a nice selection of cold and hot breakfast foods. We have felt safe when staying in this Residence Inn, the parking area is well lighted. The air conditioning in all the rooms we've stayed in have worked well- a plus in the warm, humid weather during Houston's summer months.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>We have stayed at this Residence Inn three times in the last two years, while visiting Rice University and family in Houston; the first visit on September 2010, the latest visit in May 2012. The rooms are clean and comfortable, as well as the bathroom and kitchen area of the one bedroom suite. We've stayed in first floor rooms near the side entrance to the hotel, near the patio area, which is very convenient for parking. The hotel is located within driving distance to a Kroger supermarket and other shops. During our first visit in 2010 we stayed in a pet friendly room with a cat. That room was also very clean and no evidence or smells of prior furry guests. The housekeeping staff were wonderful in locating our pet's favorite blanket which we inadvertently left behind. The breakfast area is very clean and the food items are more than adequate, a nice selection of cold and hot breakfast foods. We have felt safe when staying in this Residence Inn, the parking area is well lighted. The air conditioning in all the rooms we've stayed in have worked well- a plus in the warm, humid weather during Houston's summer months.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r131082311-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>131082311</t>
+  </si>
+  <si>
+    <t>06/01/2012</t>
+  </si>
+  <si>
+    <t>Great place to stay if more than 30 days</t>
+  </si>
+  <si>
+    <t>Hi, been here a week. Am booked in for 6 weeks. Price after 30 days is $89/day including very nice breakfast (fruit, yoghurt, cereal, oatmeal, toast, waffle, sausage, bacon, muffins etc)(*7) and dinners (incl wine/beer)(*5). After 45 days it is $69/day. I have a studio, very spacious and well fitted out. Only problem has been air conditioning by bed blasts out cold air at 3am -- i am still  in jet lag mode so it wakes me up. Setting temp to 80 is too hot, 76 seems to work OK. Staff friendly and helpful. Fantastic extra  - hotel has free shuttle that will take you anywhere within 3 miles and pick you up when you call, up til 9pm weekdays (4:30 pm weekends). Don't forget to tip the driver.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hi, been here a week. Am booked in for 6 weeks. Price after 30 days is $89/day including very nice breakfast (fruit, yoghurt, cereal, oatmeal, toast, waffle, sausage, bacon, muffins etc)(*7) and dinners (incl wine/beer)(*5). After 45 days it is $69/day. I have a studio, very spacious and well fitted out. Only problem has been air conditioning by bed blasts out cold air at 3am -- i am still  in jet lag mode so it wakes me up. Setting temp to 80 is too hot, 76 seems to work OK. Staff friendly and helpful. Fantastic extra  - hotel has free shuttle that will take you anywhere within 3 miles and pick you up when you call, up til 9pm weekdays (4:30 pm weekends). Don't forget to tip the driver.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r123809622-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>123809622</t>
+  </si>
+  <si>
+    <t>01/29/2012</t>
+  </si>
+  <si>
+    <t>Great place for an extended stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Free parking and breakfast. Full size fridge, microwave, dishes, dish washer, pool, tennis courts. If you are looking for a long ter,m place to stay this is a good one. Great location with free highway access. There is a courtyard next door which I prefer for shorter stays. There was also a pull out couch bed. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r121128722-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>121128722</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Thanksgiving stay</t>
+  </si>
+  <si>
+    <t>Hotel was clean. Service good. Wi-fi great, better than computers they provide for customers. Hotel needs upgrade, though. Piece of floor missing in kitchen. Location good..some road construction...very quite area!</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r120883211-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>120883211</t>
+  </si>
+  <si>
+    <t>11/21/2011</t>
+  </si>
+  <si>
+    <t>Great location</t>
+  </si>
+  <si>
+    <t>Not far from lots of things in Houston, yet out of the major commotion.We spent a long wkend doing the Museums and architecture sites and this hotel worked out great. Near quality shopping and the wonderful Cleburne Cafeteria.Only negative was the numerous warnings about leaving things in your car in the parking lot/potential crime issue.Started to make us a bit paranoid when we returned late at night to the parking lot   but we had no problems. Very comfortable room/suite.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r119079857-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>119079857</t>
+  </si>
+  <si>
+    <t>10/08/2011</t>
+  </si>
+  <si>
+    <t>Decent hotel for the price</t>
+  </si>
+  <si>
+    <t>The room was pretty nice and the bed was so comfortable.  However, the elevator was very slow.  I also think the shower area is extremely small.  I would stay here again, but not for a long period of time.</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r117272453-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117272453</t>
+  </si>
+  <si>
+    <t>08/26/2011</t>
+  </si>
+  <si>
+    <t>Great hotel for the price</t>
+  </si>
+  <si>
+    <t>We stayed here for a short trip to Houston for my ordination. The location cannot be beat. In fact, it was almost right behind my old apartment. The staff were super-friendly, and the breakfast was plentiful. Our room was quite large with a nice kitchen area. The only thing was a slight smell, almost like the hotel used to be a nursing home. It didn't bother me, but I definitely noticed it. The pool area wasn't great, particularly for the amount of people that were using it. Loved the free parking and wi-fi. This was an incredibly good deal for the location.</t>
+  </si>
+  <si>
+    <t>June 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r117234891-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>117234891</t>
+  </si>
+  <si>
+    <t>08/25/2011</t>
+  </si>
+  <si>
+    <t>Very nice place</t>
+  </si>
+  <si>
+    <t>Stayed for a week during the Senior Olympics. The staff was very friendly and competent. Buffet breakfast was good and filling. Room was clean and the ac really worked which was important because the heat in Houston was horrific. Afternoon snacks were available for free and the free wi-fi worked. Laundry facilities were a big plus.The Galleria was not far and easily accessible as were many nearby tourist attractions in the Museum area.We often stay at Residence Inns and they have never disappointed.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r114969237-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>114969237</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Good place, some issues</t>
+  </si>
+  <si>
+    <t>First, the hotel itself is pretty good. Clean spacious rooms, with full kitchens and comfortable beds. Even the sofa bed got good reviews from those using it. 
+Shower water pressure could be better, but not a big issue. And parking was plentiful and convenient to hotel entrances. And the hotel has a good location, though there was some road construction causing delays and you are near some pretty busy highway intersections already.
+For the most part, the hotel staff was very friendly and helpful. 
+Also note most of the rooms are going to be one bed, with sofa bed. 
+The issues: First, we weren't a big fan of the new "dead bolt" system that this (and apparently several other) hotels are using. They explained that the bolt closes automatically when you shut your door, and that your room key unlocks it. Kind of makes the purpose of the deadbolt pointless, as its supposed to add safety in the room. Any housekeeping or maintenance key or anyone who finds your key can then unlock it. In theory I think they thought it seemed like a good idea to have an auto locking dead bolt, but in reality it makes things a bit less safe, with just the bar lock as your indoor safety.
+We went through priceline to get a pretty good deal on three rooms for our group, staying two nights each. We weren't sure when everyone would be arriving,...First, the hotel itself is pretty good. Clean spacious rooms, with full kitchens and comfortable beds. Even the sofa bed got good reviews from those using it. Shower water pressure could be better, but not a big issue. And parking was plentiful and convenient to hotel entrances. And the hotel has a good location, though there was some road construction causing delays and you are near some pretty busy highway intersections already.For the most part, the hotel staff was very friendly and helpful. Also note most of the rooms are going to be one bed, with sofa bed. The issues: First, we weren't a big fan of the new "dead bolt" system that this (and apparently several other) hotels are using. They explained that the bolt closes automatically when you shut your door, and that your room key unlocks it. Kind of makes the purpose of the deadbolt pointless, as its supposed to add safety in the room. Any housekeeping or maintenance key or anyone who finds your key can then unlock it. In theory I think they thought it seemed like a good idea to have an auto locking dead bolt, but in reality it makes things a bit less safe, with just the bar lock as your indoor safety.We went through priceline to get a pretty good deal on three rooms for our group, staying two nights each. We weren't sure when everyone would be arriving, and some may just be there for one, but the priceline deal was cheap enough to have an unused night for a room if needed. Which turned out to be the case. Maybe this was a mistake because, despite us checking in all three rooms, the next morning when the last part of our group arrived, the key to the room no longer worked and come to find out they had given away our third room. But the clerk at the desk said we had only reserved one of the rooms for one night, and was trying to offer us a room for $110. We told her, then showed her our priceline conformation and receipt showing all our rooms reserved for two nights, and she still insisted the room was just for one night. We asked for a manager, who quickly resolved it and gave us our third room. That's fine, these things happen. The issue we have is that after we showed her the receipt, we shouldn't be the ones having to ask for a manager if she can't figure it out. If there's a conflict a desk clerk can't resolve, good customer service would get the manager's help without having to be prompted. Again, it was a blip, and the manager apologized and made things right, and again for the most part the staff all does a good job. But its obvious they need to be trained better in conflict resolution. And that's the main reason this is a 3-star. But if you get a good deal on this place (our priceline was over half off any other site I found, and 1/3 the price listed by marriott itself) then it's a good option that is close both to downtown and the galleria area.MoreShow less</t>
+  </si>
+  <si>
+    <t>First, the hotel itself is pretty good. Clean spacious rooms, with full kitchens and comfortable beds. Even the sofa bed got good reviews from those using it. 
+Shower water pressure could be better, but not a big issue. And parking was plentiful and convenient to hotel entrances. And the hotel has a good location, though there was some road construction causing delays and you are near some pretty busy highway intersections already.
+For the most part, the hotel staff was very friendly and helpful. 
+Also note most of the rooms are going to be one bed, with sofa bed. 
+The issues: First, we weren't a big fan of the new "dead bolt" system that this (and apparently several other) hotels are using. They explained that the bolt closes automatically when you shut your door, and that your room key unlocks it. Kind of makes the purpose of the deadbolt pointless, as its supposed to add safety in the room. Any housekeeping or maintenance key or anyone who finds your key can then unlock it. In theory I think they thought it seemed like a good idea to have an auto locking dead bolt, but in reality it makes things a bit less safe, with just the bar lock as your indoor safety.
+We went through priceline to get a pretty good deal on three rooms for our group, staying two nights each. We weren't sure when everyone would be arriving,...First, the hotel itself is pretty good. Clean spacious rooms, with full kitchens and comfortable beds. Even the sofa bed got good reviews from those using it. Shower water pressure could be better, but not a big issue. And parking was plentiful and convenient to hotel entrances. And the hotel has a good location, though there was some road construction causing delays and you are near some pretty busy highway intersections already.For the most part, the hotel staff was very friendly and helpful. Also note most of the rooms are going to be one bed, with sofa bed. The issues: First, we weren't a big fan of the new "dead bolt" system that this (and apparently several other) hotels are using. They explained that the bolt closes automatically when you shut your door, and that your room key unlocks it. Kind of makes the purpose of the deadbolt pointless, as its supposed to add safety in the room. Any housekeeping or maintenance key or anyone who finds your key can then unlock it. In theory I think they thought it seemed like a good idea to have an auto locking dead bolt, but in reality it makes things a bit less safe, with just the bar lock as your indoor safety.We went through priceline to get a pretty good deal on three rooms for our group, staying two nights each. We weren't sure when everyone would be arriving, and some may just be there for one, but the priceline deal was cheap enough to have an unused night for a room if needed. Which turned out to be the case. Maybe this was a mistake because, despite us checking in all three rooms, the next morning when the last part of our group arrived, the key to the room no longer worked and come to find out they had given away our third room. But the clerk at the desk said we had only reserved one of the rooms for one night, and was trying to offer us a room for $110. We told her, then showed her our priceline conformation and receipt showing all our rooms reserved for two nights, and she still insisted the room was just for one night. We asked for a manager, who quickly resolved it and gave us our third room. That's fine, these things happen. The issue we have is that after we showed her the receipt, we shouldn't be the ones having to ask for a manager if she can't figure it out. If there's a conflict a desk clerk can't resolve, good customer service would get the manager's help without having to be prompted. Again, it was a blip, and the manager apologized and made things right, and again for the most part the staff all does a good job. But its obvious they need to be trained better in conflict resolution. And that's the main reason this is a 3-star. But if you get a good deal on this place (our priceline was over half off any other site I found, and 1/3 the price listed by marriott itself) then it's a good option that is close both to downtown and the galleria area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r103060623-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>103060623</t>
+  </si>
+  <si>
+    <t>04/06/2011</t>
+  </si>
+  <si>
+    <t>Very friendly, helpful staff</t>
+  </si>
+  <si>
+    <t>I had a large group of family and friends stay at this hotel recently for an important event--- during an even bigger event-- the Final Four. Many of my family members commented on the helpfulness and friendliness of the hotel staff. They were terrific to work with during the planning stages and throughout the weekend.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r97963313-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>97963313</t>
+  </si>
+  <si>
+    <t>02/25/2011</t>
+  </si>
+  <si>
+    <t>Great site with helpful staff</t>
+  </si>
+  <si>
+    <t>I stayed here for business for a period of almost three months. I was put up in a one bedroom apartment and must add it was very comfortable.The property is very clean, its centrally located for grocery shopping etc. The kitchen is functional and I mostly made my own food. The most attractive feature of this particular property is its closeness to Rice university and you can take a jog around the village and the university campus. One can also hang around the village, where you will find quite a crowd during weekends.The property also has a fitness center, though I hardly used the same. The staff are very helpful and you can use a printer in case you have to.As for food, the breakfast is the same everyday, so since I was staying longer, got repetitive towards the end. However, the choices are good and people staying short term would like it.I had a great stay and would definitely return back to the same property when travelling on business.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
+    <t>I stayed here for business for a period of almost three months. I was put up in a one bedroom apartment and must add it was very comfortable.The property is very clean, its centrally located for grocery shopping etc. The kitchen is functional and I mostly made my own food. The most attractive feature of this particular property is its closeness to Rice university and you can take a jog around the village and the university campus. One can also hang around the village, where you will find quite a crowd during weekends.The property also has a fitness center, though I hardly used the same. The staff are very helpful and you can use a printer in case you have to.As for food, the breakfast is the same everyday, so since I was staying longer, got repetitive towards the end. However, the choices are good and people staying short term would like it.I had a great stay and would definitely return back to the same property when travelling on business.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r86118338-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>86118338</t>
+  </si>
+  <si>
+    <t>11/05/2010</t>
+  </si>
+  <si>
+    <t>Great suites and personalized service</t>
+  </si>
+  <si>
+    <t>I stayed here for my brother's funeral. It was a tough time because I had lost my son three weeks before. The staff was so accomodating. Will and Ray were so nice, and the staff behind the desk were very kind. The free full breakfast was good, dinner at the Courtyard was too. Coffee, tea and hot chocolate were served all day. All around my experience was terrific.</t>
+  </si>
+  <si>
+    <t>October 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r85479992-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>85479992</t>
+  </si>
+  <si>
+    <t>10/31/2010</t>
+  </si>
+  <si>
+    <t>Fabulous place to stay.</t>
+  </si>
+  <si>
+    <t>I had three occasions to stay at the Marriott Residence Inn West University in Houston.  All three were related to treatment I was receiving at MD Anderson.  Most recently I stayed for over a month while receiving treatment twice a day and telecommuting.  It was the perfect location, 3 miles from the Medical Center and bordering beautiful West University...lots of restaurants and shopping nearby.  The room was perfect, a nice sized suite with full kitchen, and wi fi.  Breakfasts were fantastic, so much to choose from, and delicious.  Monday through Thursday nights there were social hours and activities.  Each floor had washers and dryers, and of most importance, one can feel secure staying there.  There is a shuttle bus, free parking, a library and business center, a snack bar, a pool, and there is always coffee brewing.  What I liked best was the professionalism, courtesy, and kindness of the staff.  They were there to take good care of their guests, and they did just that!MoreShow less</t>
+  </si>
+  <si>
+    <t>I had three occasions to stay at the Marriott Residence Inn West University in Houston.  All three were related to treatment I was receiving at MD Anderson.  Most recently I stayed for over a month while receiving treatment twice a day and telecommuting.  It was the perfect location, 3 miles from the Medical Center and bordering beautiful West University...lots of restaurants and shopping nearby.  The room was perfect, a nice sized suite with full kitchen, and wi fi.  Breakfasts were fantastic, so much to choose from, and delicious.  Monday through Thursday nights there were social hours and activities.  Each floor had washers and dryers, and of most importance, one can feel secure staying there.  There is a shuttle bus, free parking, a library and business center, a snack bar, a pool, and there is always coffee brewing.  What I liked best was the professionalism, courtesy, and kindness of the staff.  They were there to take good care of their guests, and they did just that!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r82320600-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>82320600</t>
+  </si>
+  <si>
+    <t>10/06/2010</t>
+  </si>
+  <si>
+    <t>Great Customer Service</t>
+  </si>
+  <si>
+    <t>I had booked my reservation online and messed up the dates, so when I checked in I was told I was actually booked for the night before.  Ray at the front desk said no problem and booked me in for Sunday night and credited me back for the Saturday stay.  I was traveling with my brother who was going to MD Anderson so we booked a 2 bedroom suite that was fantastic.  We both had our own bedrooms and then a sitting area where we could watch football and relax.  It was all very quiet.  And very convenient to the hospital and to Rice University.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r75240856-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>75240856</t>
+  </si>
+  <si>
+    <t>08/14/2010</t>
+  </si>
+  <si>
+    <t>The hotel is right off the highway, but we couldn't hear that in our room. It might have been covered by the loud AC. The room was large and the bed was comfy. The front desk service was good.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r71074718-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>71074718</t>
+  </si>
+  <si>
+    <t>07/15/2010</t>
+  </si>
+  <si>
+    <t>Nice Rooms but Shady Managment</t>
+  </si>
+  <si>
+    <t>May 2010.    We had the opportunity to spend several nights at this property when we were in the area. The hotel off of a side road off of the toll way.  Be careful about driving on the toll way or you could get fined $25.00 each way.  I recommend staying off of it.  This property is near Rice University, the Galleria is not too far by car and it is near the River Oaks area of Hourston.  There is plenty of free parking in the parking lot.  
+Check-in was very fast but I knew something was wrong when the front desk person take my Marriott Bonus Bucks coupon.   
+Our room was comfortable and your standard Big Box Residence Inns. The bed was  comfortable.   Lighting in the room was good. ,   The work desk was moderate and the office-style chair okay.. My The room had a sleeper sofa and a comfortable arm chair.
+ The bathroom was clean.. Lighting was good, the towels were plentiful, and the shower worked well – immediate hot water with plenty of pressure. Bath amenities include shampoo, conditioner, lotion/
+The breakfast buffet featured scrambled eggs, hot oatmeal, and all the other things you would expect on a breakfast buffet.
+The hotel public areas were clean and well-kept, but could use an updating to the style of the rooms. 
+When checking out and settling my bill, the front desk management processed Marriott Travel cards first before the Residence...May 2010.    We had the opportunity to spend several nights at this property when we were in the area. The hotel off of a side road off of the toll way.  Be careful about driving on the toll way or you could get fined $25.00 each way.  I recommend staying off of it.  This property is near Rice University, the Galleria is not too far by car and it is near the River Oaks area of Hourston.  There is plenty of free parking in the parking lot.  Check-in was very fast but I knew something was wrong when the front desk person take my Marriott Bonus Bucks coupon.   Our room was comfortable and your standard Big Box Residence Inns. The bed was  comfortable.   Lighting in the room was good. ,   The work desk was moderate and the office-style chair okay.. My The room had a sleeper sofa and a comfortable arm chair. The bathroom was clean.. Lighting was good, the towels were plentiful, and the shower worked well – immediate hot water with plenty of pressure. Bath amenities include shampoo, conditioner, lotion/The breakfast buffet featured scrambled eggs, hot oatmeal, and all the other things you would expect on a breakfast buffet.The hotel public areas were clean and well-kept, but could use an updating to the style of the rooms. When checking out and settling my bill, the front desk management processed Marriott Travel cards first before the Residence Inn Bonus Bucks.  This left with a difficult choice because if I used the Bonus Bucks I would not able to use the face value.  This is awful strange since on this trip the Residence Inn at Alamo Square in San Antonio had no problem accepting the full amount of the Bonus Buck.  Also after this trip I used a Marriot property bonus buck at the Renaissance Madison in Seattle and they had no problem accepting it.  I had used a Bonus Buck at the J.W. Marriott Union Square in San Francisco and they had no problem accepting it.  This property and it's managment was sneaky in what it did just to make a few bucks!I have a future trip scheduled for Houston and it is fair to stay I won't be staying at this property again!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>May 2010.    We had the opportunity to spend several nights at this property when we were in the area. The hotel off of a side road off of the toll way.  Be careful about driving on the toll way or you could get fined $25.00 each way.  I recommend staying off of it.  This property is near Rice University, the Galleria is not too far by car and it is near the River Oaks area of Hourston.  There is plenty of free parking in the parking lot.  
+Check-in was very fast but I knew something was wrong when the front desk person take my Marriott Bonus Bucks coupon.   
+Our room was comfortable and your standard Big Box Residence Inns. The bed was  comfortable.   Lighting in the room was good. ,   The work desk was moderate and the office-style chair okay.. My The room had a sleeper sofa and a comfortable arm chair.
+ The bathroom was clean.. Lighting was good, the towels were plentiful, and the shower worked well – immediate hot water with plenty of pressure. Bath amenities include shampoo, conditioner, lotion/
+The breakfast buffet featured scrambled eggs, hot oatmeal, and all the other things you would expect on a breakfast buffet.
+The hotel public areas were clean and well-kept, but could use an updating to the style of the rooms. 
+When checking out and settling my bill, the front desk management processed Marriott Travel cards first before the Residence...May 2010.    We had the opportunity to spend several nights at this property when we were in the area. The hotel off of a side road off of the toll way.  Be careful about driving on the toll way or you could get fined $25.00 each way.  I recommend staying off of it.  This property is near Rice University, the Galleria is not too far by car and it is near the River Oaks area of Hourston.  There is plenty of free parking in the parking lot.  Check-in was very fast but I knew something was wrong when the front desk person take my Marriott Bonus Bucks coupon.   Our room was comfortable and your standard Big Box Residence Inns. The bed was  comfortable.   Lighting in the room was good. ,   The work desk was moderate and the office-style chair okay.. My The room had a sleeper sofa and a comfortable arm chair. The bathroom was clean.. Lighting was good, the towels were plentiful, and the shower worked well – immediate hot water with plenty of pressure. Bath amenities include shampoo, conditioner, lotion/The breakfast buffet featured scrambled eggs, hot oatmeal, and all the other things you would expect on a breakfast buffet.The hotel public areas were clean and well-kept, but could use an updating to the style of the rooms. When checking out and settling my bill, the front desk management processed Marriott Travel cards first before the Residence Inn Bonus Bucks.  This left with a difficult choice because if I used the Bonus Bucks I would not able to use the face value.  This is awful strange since on this trip the Residence Inn at Alamo Square in San Antonio had no problem accepting the full amount of the Bonus Buck.  Also after this trip I used a Marriot property bonus buck at the Renaissance Madison in Seattle and they had no problem accepting it.  I had used a Bonus Buck at the J.W. Marriott Union Square in San Francisco and they had no problem accepting it.  This property and it's managment was sneaky in what it did just to make a few bucks!I have a future trip scheduled for Houston and it is fair to stay I won't be staying at this property again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r51861412-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>51861412</t>
+  </si>
+  <si>
+    <t>12/25/2009</t>
+  </si>
+  <si>
+    <t>Excellent hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this Residence Inn the freezing cold night of Christmas Eve 2009.  I had a nice suite that was perfect in every way.  I don't know how old this hotel is, but my room didn't have any wear and tear at all.   I was especially happy about the extra blanket due to the cold weather (I like to turn the heat way down at night).   The location is a little tricky.  If you exit the freeway at Buffalo Speedway, you cannot turn left onto Westpark, the street on which the hotel is located.  If I were to do it again, I would exit at Kirby and access Westpark from Kirby instead.  Considering how centrally located the hotel is, it's in a surprisingly quiet location, pretty much residential, with a senior living complex next door, and a Marriott Courtyard and a large vacant lot as buffers between the Residence Inn and the freeway.  I couldn't hear any traffic noise whatsoever.  A couple of minutes away is the large, high rise commercial district of Greenway Plaze, and downtown is probably only 10 minutes away.  Another huge high rise district (Uptown/Galleria) is between 5 and 10 minutes away depending on traffic, as is the Medical Center and Museum District.  I visited my parents in the beautiful West University neighborhood, which was only a few  blocks behind the hotel (south of Bissonnet).  My only suggestion to the hotel management would be that...I stayed at this Residence Inn the freezing cold night of Christmas Eve 2009.  I had a nice suite that was perfect in every way.  I don't know how old this hotel is, but my room didn't have any wear and tear at all.   I was especially happy about the extra blanket due to the cold weather (I like to turn the heat way down at night).   The location is a little tricky.  If you exit the freeway at Buffalo Speedway, you cannot turn left onto Westpark, the street on which the hotel is located.  If I were to do it again, I would exit at Kirby and access Westpark from Kirby instead.  Considering how centrally located the hotel is, it's in a surprisingly quiet location, pretty much residential, with a senior living complex next door, and a Marriott Courtyard and a large vacant lot as buffers between the Residence Inn and the freeway.  I couldn't hear any traffic noise whatsoever.  A couple of minutes away is the large, high rise commercial district of Greenway Plaze, and downtown is probably only 10 minutes away.  Another huge high rise district (Uptown/Galleria) is between 5 and 10 minutes away depending on traffic, as is the Medical Center and Museum District.  I visited my parents in the beautiful West University neighborhood, which was only a few  blocks behind the hotel (south of Bissonnet).  My only suggestion to the hotel management would be that they should prohibit their employees from smoking near the door to the lobby.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2009</t>
+  </si>
+  <si>
+    <t>I stayed at this Residence Inn the freezing cold night of Christmas Eve 2009.  I had a nice suite that was perfect in every way.  I don't know how old this hotel is, but my room didn't have any wear and tear at all.   I was especially happy about the extra blanket due to the cold weather (I like to turn the heat way down at night).   The location is a little tricky.  If you exit the freeway at Buffalo Speedway, you cannot turn left onto Westpark, the street on which the hotel is located.  If I were to do it again, I would exit at Kirby and access Westpark from Kirby instead.  Considering how centrally located the hotel is, it's in a surprisingly quiet location, pretty much residential, with a senior living complex next door, and a Marriott Courtyard and a large vacant lot as buffers between the Residence Inn and the freeway.  I couldn't hear any traffic noise whatsoever.  A couple of minutes away is the large, high rise commercial district of Greenway Plaze, and downtown is probably only 10 minutes away.  Another huge high rise district (Uptown/Galleria) is between 5 and 10 minutes away depending on traffic, as is the Medical Center and Museum District.  I visited my parents in the beautiful West University neighborhood, which was only a few  blocks behind the hotel (south of Bissonnet).  My only suggestion to the hotel management would be that...I stayed at this Residence Inn the freezing cold night of Christmas Eve 2009.  I had a nice suite that was perfect in every way.  I don't know how old this hotel is, but my room didn't have any wear and tear at all.   I was especially happy about the extra blanket due to the cold weather (I like to turn the heat way down at night).   The location is a little tricky.  If you exit the freeway at Buffalo Speedway, you cannot turn left onto Westpark, the street on which the hotel is located.  If I were to do it again, I would exit at Kirby and access Westpark from Kirby instead.  Considering how centrally located the hotel is, it's in a surprisingly quiet location, pretty much residential, with a senior living complex next door, and a Marriott Courtyard and a large vacant lot as buffers between the Residence Inn and the freeway.  I couldn't hear any traffic noise whatsoever.  A couple of minutes away is the large, high rise commercial district of Greenway Plaze, and downtown is probably only 10 minutes away.  Another huge high rise district (Uptown/Galleria) is between 5 and 10 minutes away depending on traffic, as is the Medical Center and Museum District.  I visited my parents in the beautiful West University neighborhood, which was only a few  blocks behind the hotel (south of Bissonnet).  My only suggestion to the hotel management would be that they should prohibit their employees from smoking near the door to the lobby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r43200187-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>43200187</t>
+  </si>
+  <si>
+    <t>09/20/2009</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>My  wife and I stayed in a studio suite at the Residence Inn-Houston West University for two nights/three days recently and we both thought the place was great.  Although we arrived early (12:15 p.m.) the staff went ahead and allowed us to check in. Our room was spacious and had a kitchen with full size stove, refrigerator, plates utensils, etc.; desk with computer internet connection; living room area with 32-inch flat screen TV;  "bedroom" just off the living room area with a queen size bed;  a dressing area with a sink; and a tiled bathroom . Furniture and linens were showing a little wear and tear but were just fine.  The entire place was very clean. The hotel has a pool and hot tub, small exercise room, and a business center with several computers and printers.  I have to say that the included breakfast was  one of the best I have ever had at a motel and included everything you could think of including oatmal, cereals, many types of breads and donuts, scrambled eggs, sausage, fried potatoes, french toast, waffels, juices, coffee, yogurt, milk, fruit and lots of other stuff. The hotel is located a street south of US-59 and was a little difficult to get to from US-59 (even though I had a map and knew where the hotel was located) because traffic on Buffalo Speedway makes it difficult to turn east onto Westpark Drive (the road the hotel...My  wife and I stayed in a studio suite at the Residence Inn-Houston West University for two nights/three days recently and we both thought the place was great.  Although we arrived early (12:15 p.m.) the staff went ahead and allowed us to check in. Our room was spacious and had a kitchen with full size stove, refrigerator, plates utensils, etc.; desk with computer internet connection; living room area with 32-inch flat screen TV;  "bedroom" just off the living room area with a queen size bed;  a dressing area with a sink; and a tiled bathroom . Furniture and linens were showing a little wear and tear but were just fine.  The entire place was very clean. The hotel has a pool and hot tub, small exercise room, and a business center with several computers and printers.  I have to say that the included breakfast was  one of the best I have ever had at a motel and included everything you could think of including oatmal, cereals, many types of breads and donuts, scrambled eggs, sausage, fried potatoes, french toast, waffels, juices, coffee, yogurt, milk, fruit and lots of other stuff. The hotel is located a street south of US-59 and was a little difficult to get to from US-59 (even though I had a map and knew where the hotel was located) because traffic on Buffalo Speedway makes it difficult to turn east onto Westpark Drive (the road the hotel is located on).  Plus the signage for the hotel is very small and hard to see.  No big deal -  just a warning to bring a map with you.  Also, the Courtyard Motel is located on the front of the property and the Residence Inn on the back so you will need to drive to the Residence Inn sign near the back of the property to check in.  The hotel location is fantastic and is close to Rice University, the Museum District, several farmers markets, lots of restaurants and shopping, a very nice HEB Grocery store, US-59, and the Galleria.  Parking was free which is a big deal because most other hotels in this area charge approx $10.00 per day to park.  The Residence Inn-Houston West University was a great place to stay and  we will definitely stay here again while in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2009</t>
+  </si>
+  <si>
+    <t>My  wife and I stayed in a studio suite at the Residence Inn-Houston West University for two nights/three days recently and we both thought the place was great.  Although we arrived early (12:15 p.m.) the staff went ahead and allowed us to check in. Our room was spacious and had a kitchen with full size stove, refrigerator, plates utensils, etc.; desk with computer internet connection; living room area with 32-inch flat screen TV;  "bedroom" just off the living room area with a queen size bed;  a dressing area with a sink; and a tiled bathroom . Furniture and linens were showing a little wear and tear but were just fine.  The entire place was very clean. The hotel has a pool and hot tub, small exercise room, and a business center with several computers and printers.  I have to say that the included breakfast was  one of the best I have ever had at a motel and included everything you could think of including oatmal, cereals, many types of breads and donuts, scrambled eggs, sausage, fried potatoes, french toast, waffels, juices, coffee, yogurt, milk, fruit and lots of other stuff. The hotel is located a street south of US-59 and was a little difficult to get to from US-59 (even though I had a map and knew where the hotel was located) because traffic on Buffalo Speedway makes it difficult to turn east onto Westpark Drive (the road the hotel...My  wife and I stayed in a studio suite at the Residence Inn-Houston West University for two nights/three days recently and we both thought the place was great.  Although we arrived early (12:15 p.m.) the staff went ahead and allowed us to check in. Our room was spacious and had a kitchen with full size stove, refrigerator, plates utensils, etc.; desk with computer internet connection; living room area with 32-inch flat screen TV;  "bedroom" just off the living room area with a queen size bed;  a dressing area with a sink; and a tiled bathroom . Furniture and linens were showing a little wear and tear but were just fine.  The entire place was very clean. The hotel has a pool and hot tub, small exercise room, and a business center with several computers and printers.  I have to say that the included breakfast was  one of the best I have ever had at a motel and included everything you could think of including oatmal, cereals, many types of breads and donuts, scrambled eggs, sausage, fried potatoes, french toast, waffels, juices, coffee, yogurt, milk, fruit and lots of other stuff. The hotel is located a street south of US-59 and was a little difficult to get to from US-59 (even though I had a map and knew where the hotel was located) because traffic on Buffalo Speedway makes it difficult to turn east onto Westpark Drive (the road the hotel is located on).  Plus the signage for the hotel is very small and hard to see.  No big deal -  just a warning to bring a map with you.  Also, the Courtyard Motel is located on the front of the property and the Residence Inn on the back so you will need to drive to the Residence Inn sign near the back of the property to check in.  The hotel location is fantastic and is close to Rice University, the Museum District, several farmers markets, lots of restaurants and shopping, a very nice HEB Grocery store, US-59, and the Galleria.  Parking was free which is a big deal because most other hotels in this area charge approx $10.00 per day to park.  The Residence Inn-Houston West University was a great place to stay and  we will definitely stay here again while in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r40359403-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>40359403</t>
+  </si>
+  <si>
+    <t>09/09/2009</t>
+  </si>
+  <si>
+    <t>Cute and quaint just west of downtown</t>
+  </si>
+  <si>
+    <t>I really liked this hotel although I think it was a little overpriced for the size of the room. I stayed in the queen suite with my 6 yr old and a 13 yr old. I liked the suite because it had 2 tv's, and they are the lcd tvs. this was a very nice option...very large tvs too. The rooms are very tightly done, but manageable. The one thing I didn't like it that you have to go through the bedroom to get to the bathroom, so even though the room has a door on it , well you get the  picture. The staff was wonderful and even though the clerk got me a  little lost, he was so sweet and apologetic. He knew alternate ways to get to the galleria, which is about a 10 minute drive if you don't take the highway. I would recommend taking the highway. Even though there are toll roads, I did not hit a single toll coming from San Antonio, to Highway 610 South, to Highway 59 north. The hotel is just off this highway. The pool area was well maintained and is open until 10 pm. the hot tub temperature was way too warm and very uncomfortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>I really liked this hotel although I think it was a little overpriced for the size of the room. I stayed in the queen suite with my 6 yr old and a 13 yr old. I liked the suite because it had 2 tv's, and they are the lcd tvs. this was a very nice option...very large tvs too. The rooms are very tightly done, but manageable. The one thing I didn't like it that you have to go through the bedroom to get to the bathroom, so even though the room has a door on it , well you get the  picture. The staff was wonderful and even though the clerk got me a  little lost, he was so sweet and apologetic. He knew alternate ways to get to the galleria, which is about a 10 minute drive if you don't take the highway. I would recommend taking the highway. Even though there are toll roads, I did not hit a single toll coming from San Antonio, to Highway 610 South, to Highway 59 north. The hotel is just off this highway. The pool area was well maintained and is open until 10 pm. the hot tub temperature was way too warm and very uncomfortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r37375046-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>37375046</t>
+  </si>
+  <si>
+    <t>08/11/2009</t>
+  </si>
+  <si>
+    <t>They Thought Of It All!</t>
+  </si>
+  <si>
+    <t>I searched long and hard for the best hotel for the money for my solo leisure trip to Houston/Galveston. I wanted a considerably nice room at a hotel that offered free wireless Internet service, free breakfast, free parking, and at least a microwave in the room. While many of the "upscale" hotels may offer more luxurious rooms, they charge ridiculous daily fees for Internet usage and parking and do not offer the free breakfast or even have microwaves in the rooms. After too many hours of researching hotels, I finally settled on this particular Residence Inn. Because I was somewhat leery of the hotel due to some of the reviews posted here, the hotel's overall rating on this site, and my prior stay at a different Residence Inn some months ago. So my intent was to check into the hotel for one night and find another hotel the next day.
+   I have a GPS so finding the hotel was not a problem. I was not alarmed to see a Courtyard Hotel when I turned into the parking lot because at the lot entrance was a sign for both the Courtyard and the Residence Inn. I parked without a fee.
+   I was warmly greeted by a member of the staff at the front desk and my registration was quickly processed. She gave me the key to my room, a map, and directions to my room. 
+  First, I must say that I...I searched long and hard for the best hotel for the money for my solo leisure trip to Houston/Galveston. I wanted a considerably nice room at a hotel that offered free wireless Internet service, free breakfast, free parking, and at least a microwave in the room. While many of the "upscale" hotels may offer more luxurious rooms, they charge ridiculous daily fees for Internet usage and parking and do not offer the free breakfast or even have microwaves in the rooms. After too many hours of researching hotels, I finally settled on this particular Residence Inn. Because I was somewhat leery of the hotel due to some of the reviews posted here, the hotel's overall rating on this site, and my prior stay at a different Residence Inn some months ago. So my intent was to check into the hotel for one night and find another hotel the next day.   I have a GPS so finding the hotel was not a problem. I was not alarmed to see a Courtyard Hotel when I turned into the parking lot because at the lot entrance was a sign for both the Courtyard and the Residence Inn. I parked without a fee.   I was warmly greeted by a member of the staff at the front desk and my registration was quickly processed. She gave me the key to my room, a map, and directions to my room.   First, I must say that I was pleasantly surprised to find that I had to go through a door that led me back inside the hotel to an elevator that took me to my room on the 2nd floor.  At the last Residence Inn I stayed, the door to my room was accessed from the outside, which does not feel as safe.  The hotel still looks and smells new (no strange odors). The corridor was spotless.  I entered my room - a studio with a queen bed -  and my eyes widened with surprise. The room was very nice. It was nicely furnished with matching pieces and color-coordinated quite well. The studio has a full kitchen with bar table/2 bar-sized chairs, fridge, microwave, stovetop, dishwasher, coffee maker, pots, pans, silverware, cooking utensils, and cupboards that match the wood furnishings.  The sink countertop in the bathroom, the shower wall and the window sills are all made of granite.  The room also has a flat-screen television.  I instantly knew I would not be going anywhere, that I would be staying at this hotel. Now, as I prepare to leave the hotel, I can say that I highly recommend this Residence Inn to all who are seeking a hotel with a total package, nicley priced. I have thoroughly enjoyed my five-day, four-night stay here. The free breakfast with waffles and strawberry topping and whip cream, along with several other breakfast items, was quite good. The staff is friendly and eager to assist. I should also add here how I wanted to attend the 8:30a Sunday service at the Lakewood Church (Pastored by Joel Osteen) and called the front desk about 8:10a  to request the shuttle service (I knew the church was only 2 minutes away per my GPS). I was initially told that the shuttle only does drop-offs at the top of every hour, but after hearing the disappointment in my voice I was told to come on down and the shuttle would take me to the church. By the way, the service was great. After it ended, I called for the shuttle to pick me up, and the driver was there in less than five minutes.  I honestly have no complaints about this hotel (well, maybe one - the iron in the room didn't iron too well but was sufficient for the casual clothes I wore. Otherwise, I would have requested another one).  This hotel thought of it all and I will definitely stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2009</t>
+  </si>
+  <si>
+    <t>I searched long and hard for the best hotel for the money for my solo leisure trip to Houston/Galveston. I wanted a considerably nice room at a hotel that offered free wireless Internet service, free breakfast, free parking, and at least a microwave in the room. While many of the "upscale" hotels may offer more luxurious rooms, they charge ridiculous daily fees for Internet usage and parking and do not offer the free breakfast or even have microwaves in the rooms. After too many hours of researching hotels, I finally settled on this particular Residence Inn. Because I was somewhat leery of the hotel due to some of the reviews posted here, the hotel's overall rating on this site, and my prior stay at a different Residence Inn some months ago. So my intent was to check into the hotel for one night and find another hotel the next day.
+   I have a GPS so finding the hotel was not a problem. I was not alarmed to see a Courtyard Hotel when I turned into the parking lot because at the lot entrance was a sign for both the Courtyard and the Residence Inn. I parked without a fee.
+   I was warmly greeted by a member of the staff at the front desk and my registration was quickly processed. She gave me the key to my room, a map, and directions to my room. 
+  First, I must say that I...I searched long and hard for the best hotel for the money for my solo leisure trip to Houston/Galveston. I wanted a considerably nice room at a hotel that offered free wireless Internet service, free breakfast, free parking, and at least a microwave in the room. While many of the "upscale" hotels may offer more luxurious rooms, they charge ridiculous daily fees for Internet usage and parking and do not offer the free breakfast or even have microwaves in the rooms. After too many hours of researching hotels, I finally settled on this particular Residence Inn. Because I was somewhat leery of the hotel due to some of the reviews posted here, the hotel's overall rating on this site, and my prior stay at a different Residence Inn some months ago. So my intent was to check into the hotel for one night and find another hotel the next day.   I have a GPS so finding the hotel was not a problem. I was not alarmed to see a Courtyard Hotel when I turned into the parking lot because at the lot entrance was a sign for both the Courtyard and the Residence Inn. I parked without a fee.   I was warmly greeted by a member of the staff at the front desk and my registration was quickly processed. She gave me the key to my room, a map, and directions to my room.   First, I must say that I was pleasantly surprised to find that I had to go through a door that led me back inside the hotel to an elevator that took me to my room on the 2nd floor.  At the last Residence Inn I stayed, the door to my room was accessed from the outside, which does not feel as safe.  The hotel still looks and smells new (no strange odors). The corridor was spotless.  I entered my room - a studio with a queen bed -  and my eyes widened with surprise. The room was very nice. It was nicely furnished with matching pieces and color-coordinated quite well. The studio has a full kitchen with bar table/2 bar-sized chairs, fridge, microwave, stovetop, dishwasher, coffee maker, pots, pans, silverware, cooking utensils, and cupboards that match the wood furnishings.  The sink countertop in the bathroom, the shower wall and the window sills are all made of granite.  The room also has a flat-screen television.  I instantly knew I would not be going anywhere, that I would be staying at this hotel. Now, as I prepare to leave the hotel, I can say that I highly recommend this Residence Inn to all who are seeking a hotel with a total package, nicley priced. I have thoroughly enjoyed my five-day, four-night stay here. The free breakfast with waffles and strawberry topping and whip cream, along with several other breakfast items, was quite good. The staff is friendly and eager to assist. I should also add here how I wanted to attend the 8:30a Sunday service at the Lakewood Church (Pastored by Joel Osteen) and called the front desk about 8:10a  to request the shuttle service (I knew the church was only 2 minutes away per my GPS). I was initially told that the shuttle only does drop-offs at the top of every hour, but after hearing the disappointment in my voice I was told to come on down and the shuttle would take me to the church. By the way, the service was great. After it ended, I called for the shuttle to pick me up, and the driver was there in less than five minutes.  I honestly have no complaints about this hotel (well, maybe one - the iron in the room didn't iron too well but was sufficient for the casual clothes I wore. Otherwise, I would have requested another one).  This hotel thought of it all and I will definitely stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r27155478-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>27155478</t>
+  </si>
+  <si>
+    <t>03/31/2009</t>
+  </si>
+  <si>
+    <t>Very good accommdations if you need to be in this area -- with one exception</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn because it was convenient to a hospital where a friend was being treated.  Not a scenic location by any stretch of the imagination, but it's good if you are staying at a nearby medical facility.  Many restaurants nearby.  The staff were extremely friendly, professional and solicitous.  When they didn't know the answer to something, they tried to find out.  The room was very clean.  I got an upgrade to a two room suite with my Marriott rewards card, although I don't have that many points on the card -- I just asked.  Unlike some residence hotels, the kitchen was stocked with cooking utensils, plates, dish washing soap, etc.  Windows are locked shut, but they had someone unlock them for me.  Bathroom amenities are find.  Good water pressure on shower.  Huge selection of food for breakfast, some good quality (e.g., fresh fruit), some not so much (e.g., packaged donuts).  Very comfortable dining area.  Computers were not always working, but the sister hotel next door allows guests to use theirs, including printer -- no fee.  Nice outdoor pool.  Here was the problem:  When I arrived at the Houston airport, I took a taxi to the hotel.  At my departure, I asked the front desk clerk call me a taxi  to the airport.  When the car arrived, the clerk informed me that it was a car service that would be cheaper and "safer" than a taxi.  First...I stayed at the Residence Inn because it was convenient to a hospital where a friend was being treated.  Not a scenic location by any stretch of the imagination, but it's good if you are staying at a nearby medical facility.  Many restaurants nearby.  The staff were extremely friendly, professional and solicitous.  When they didn't know the answer to something, they tried to find out.  The room was very clean.  I got an upgrade to a two room suite with my Marriott rewards card, although I don't have that many points on the card -- I just asked.  Unlike some residence hotels, the kitchen was stocked with cooking utensils, plates, dish washing soap, etc.  Windows are locked shut, but they had someone unlock them for me.  Bathroom amenities are find.  Good water pressure on shower.  Huge selection of food for breakfast, some good quality (e.g., fresh fruit), some not so much (e.g., packaged donuts).  Very comfortable dining area.  Computers were not always working, but the sister hotel next door allows guests to use theirs, including printer -- no fee.  Nice outdoor pool.  Here was the problem:  When I arrived at the Houston airport, I took a taxi to the hotel.  At my departure, I asked the front desk clerk call me a taxi  to the airport.  When the car arrived, the clerk informed me that it was a car service that would be cheaper and "safer" than a taxi.  First of all, it was more expensive for a shorter drive (flat rate of $65).  Second, I'm concerned if hotel staff don't feel that taxis in the area are safe.  I did comment to Marriott on their web site and received what I feel is an unsatisfactory answer:  that they have some kind of arrangement with the car service and that they were not aware that it cost more.  This was not a big blip for an otherwise good experience.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I stayed at the Residence Inn because it was convenient to a hospital where a friend was being treated.  Not a scenic location by any stretch of the imagination, but it's good if you are staying at a nearby medical facility.  Many restaurants nearby.  The staff were extremely friendly, professional and solicitous.  When they didn't know the answer to something, they tried to find out.  The room was very clean.  I got an upgrade to a two room suite with my Marriott rewards card, although I don't have that many points on the card -- I just asked.  Unlike some residence hotels, the kitchen was stocked with cooking utensils, plates, dish washing soap, etc.  Windows are locked shut, but they had someone unlock them for me.  Bathroom amenities are find.  Good water pressure on shower.  Huge selection of food for breakfast, some good quality (e.g., fresh fruit), some not so much (e.g., packaged donuts).  Very comfortable dining area.  Computers were not always working, but the sister hotel next door allows guests to use theirs, including printer -- no fee.  Nice outdoor pool.  Here was the problem:  When I arrived at the Houston airport, I took a taxi to the hotel.  At my departure, I asked the front desk clerk call me a taxi  to the airport.  When the car arrived, the clerk informed me that it was a car service that would be cheaper and "safer" than a taxi.  First...I stayed at the Residence Inn because it was convenient to a hospital where a friend was being treated.  Not a scenic location by any stretch of the imagination, but it's good if you are staying at a nearby medical facility.  Many restaurants nearby.  The staff were extremely friendly, professional and solicitous.  When they didn't know the answer to something, they tried to find out.  The room was very clean.  I got an upgrade to a two room suite with my Marriott rewards card, although I don't have that many points on the card -- I just asked.  Unlike some residence hotels, the kitchen was stocked with cooking utensils, plates, dish washing soap, etc.  Windows are locked shut, but they had someone unlock them for me.  Bathroom amenities are find.  Good water pressure on shower.  Huge selection of food for breakfast, some good quality (e.g., fresh fruit), some not so much (e.g., packaged donuts).  Very comfortable dining area.  Computers were not always working, but the sister hotel next door allows guests to use theirs, including printer -- no fee.  Nice outdoor pool.  Here was the problem:  When I arrived at the Houston airport, I took a taxi to the hotel.  At my departure, I asked the front desk clerk call me a taxi  to the airport.  When the car arrived, the clerk informed me that it was a car service that would be cheaper and "safer" than a taxi.  First of all, it was more expensive for a shorter drive (flat rate of $65).  Second, I'm concerned if hotel staff don't feel that taxis in the area are safe.  I did comment to Marriott on their web site and received what I feel is an unsatisfactory answer:  that they have some kind of arrangement with the car service and that they were not aware that it cost more.  This was not a big blip for an otherwise good experience.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r24109142-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>24109142</t>
+  </si>
+  <si>
+    <t>02/02/2009</t>
+  </si>
+  <si>
+    <t>Great stay in Houston</t>
+  </si>
+  <si>
+    <t>Having just returned from a 4 day stay in Houston for a family function, I have to say that Residence Inn was a very good choice.  Room was clean, breakfast was more than ample, and the small workout room (2 Precor treadmills, recumbant bike, stair climber and free weights) was fine for my wife and me.  Further, the price was very reasonable.  Hotel is near a plethora of restaurants and shopping, as well.  Finally, the front desk staff was very outgoing.  We would definitely stay again for the value, convenience and cleanliness.</t>
+  </si>
+  <si>
+    <t>January 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r18061794-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>18061794</t>
+  </si>
+  <si>
+    <t>07/20/2008</t>
+  </si>
+  <si>
+    <t>Great Room, Spotty Staff</t>
+  </si>
+  <si>
+    <t>While in town in Houston, I took advantage of a relative's "friends and family" discount to stay at the Residence Inn in Houston.  I room was fine but the staff I found to be a bit incompetent.  First, they said they did not receive the proper paperwork from my relative, which precipitated a call to her and her jumping through hoops to get them the necessary documentation, only to find out later that it was right where it should have been - in their book of faxes.  Additionally, we asked for directions to the ballpark and while one honestly said that she did not know and did not try to give us directions, another tried to wing it without knowing for sure.  The subsequent roaming around a rather dodgy-looking neighborhood while searching for the park wasting our time.  He could have simply said he did not know which would have been perfectly fine.  The room itself was very comfortable, clean and useful and we really enjoyed it.  If I could stay there again without dealing with their staff, I will stay there again.  Otherwise, I might search out other options the next time I'm in Houston.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2008</t>
+  </si>
+  <si>
+    <t>While in town in Houston, I took advantage of a relative's "friends and family" discount to stay at the Residence Inn in Houston.  I room was fine but the staff I found to be a bit incompetent.  First, they said they did not receive the proper paperwork from my relative, which precipitated a call to her and her jumping through hoops to get them the necessary documentation, only to find out later that it was right where it should have been - in their book of faxes.  Additionally, we asked for directions to the ballpark and while one honestly said that she did not know and did not try to give us directions, another tried to wing it without knowing for sure.  The subsequent roaming around a rather dodgy-looking neighborhood while searching for the park wasting our time.  He could have simply said he did not know which would have been perfectly fine.  The room itself was very comfortable, clean and useful and we really enjoyed it.  If I could stay there again without dealing with their staff, I will stay there again.  Otherwise, I might search out other options the next time I'm in Houston.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r12023807-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>12023807</t>
+  </si>
+  <si>
+    <t>12/28/2007</t>
+  </si>
+  <si>
+    <t>Honesty is the best policy</t>
+  </si>
+  <si>
+    <t>The first morning, we went down to breakfast and when we returned, the room was already made up.  This was unexpected.  I had left my laptop computer there in plain sight.  Further, my wife had forgotten to put on her moneybelt, which contained a significant amount of cash.  The laptop was there, untouched.  The moneybelt was sitting on the pillow.  We counted the money.  Since it was our first day, we knew exactly how much should have been there.  It would have been easy to slip out a bill, but no, every dollar was there.  Residence Inn, I'm delighted to report that you're employing some very honest people.
+As for the rest of the hotel, well, we reported a very squeaky bathroom door, but it didn't get oiled while we were there.  And the cleaning could have been a little more thorough, though it was pretty good.  Breakfast was probably the best I've ever had in a hotel.
+It can be a hard place to find.  You come off 59 onto Kirby then turn right onto Westpark.  A very bleak looking road, especially at night.  Is this the right way?  We went right past it and only just glimpsed the Courtyard.  Then I remembered that Tripadvisor members had said that it was in behind that.  Sure enough.  What's the problem?  Is there a zoning restriction (Houston has those?) banning signs near the road?  Anyway, once you're there, you're very well...The first morning, we went down to breakfast and when we returned, the room was already made up.  This was unexpected.  I had left my laptop computer there in plain sight.  Further, my wife had forgotten to put on her moneybelt, which contained a significant amount of cash.  The laptop was there, untouched.  The moneybelt was sitting on the pillow.  We counted the money.  Since it was our first day, we knew exactly how much should have been there.  It would have been easy to slip out a bill, but no, every dollar was there.  Residence Inn, I'm delighted to report that you're employing some very honest people.As for the rest of the hotel, well, we reported a very squeaky bathroom door, but it didn't get oiled while we were there.  And the cleaning could have been a little more thorough, though it was pretty good.  Breakfast was probably the best I've ever had in a hotel.It can be a hard place to find.  You come off 59 onto Kirby then turn right onto Westpark.  A very bleak looking road, especially at night.  Is this the right way?  We went right past it and only just glimpsed the Courtyard.  Then I remembered that Tripadvisor members had said that it was in behind that.  Sure enough.  What's the problem?  Is there a zoning restriction (Houston has those?) banning signs near the road?  Anyway, once you're there, you're very well placed to get to the museums, Rice Village, and almost any other place you want to get to.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2007</t>
+  </si>
+  <si>
+    <t>The first morning, we went down to breakfast and when we returned, the room was already made up.  This was unexpected.  I had left my laptop computer there in plain sight.  Further, my wife had forgotten to put on her moneybelt, which contained a significant amount of cash.  The laptop was there, untouched.  The moneybelt was sitting on the pillow.  We counted the money.  Since it was our first day, we knew exactly how much should have been there.  It would have been easy to slip out a bill, but no, every dollar was there.  Residence Inn, I'm delighted to report that you're employing some very honest people.
+As for the rest of the hotel, well, we reported a very squeaky bathroom door, but it didn't get oiled while we were there.  And the cleaning could have been a little more thorough, though it was pretty good.  Breakfast was probably the best I've ever had in a hotel.
+It can be a hard place to find.  You come off 59 onto Kirby then turn right onto Westpark.  A very bleak looking road, especially at night.  Is this the right way?  We went right past it and only just glimpsed the Courtyard.  Then I remembered that Tripadvisor members had said that it was in behind that.  Sure enough.  What's the problem?  Is there a zoning restriction (Houston has those?) banning signs near the road?  Anyway, once you're there, you're very well...The first morning, we went down to breakfast and when we returned, the room was already made up.  This was unexpected.  I had left my laptop computer there in plain sight.  Further, my wife had forgotten to put on her moneybelt, which contained a significant amount of cash.  The laptop was there, untouched.  The moneybelt was sitting on the pillow.  We counted the money.  Since it was our first day, we knew exactly how much should have been there.  It would have been easy to slip out a bill, but no, every dollar was there.  Residence Inn, I'm delighted to report that you're employing some very honest people.As for the rest of the hotel, well, we reported a very squeaky bathroom door, but it didn't get oiled while we were there.  And the cleaning could have been a little more thorough, though it was pretty good.  Breakfast was probably the best I've ever had in a hotel.It can be a hard place to find.  You come off 59 onto Kirby then turn right onto Westpark.  A very bleak looking road, especially at night.  Is this the right way?  We went right past it and only just glimpsed the Courtyard.  Then I remembered that Tripadvisor members had said that it was in behind that.  Sure enough.  What's the problem?  Is there a zoning restriction (Houston has those?) banning signs near the road?  Anyway, once you're there, you're very well placed to get to the museums, Rice Village, and almost any other place you want to get to.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r10906826-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>10906826</t>
+  </si>
+  <si>
+    <t>11/18/2007</t>
+  </si>
+  <si>
+    <t>Great Stay!</t>
+  </si>
+  <si>
+    <t>Spent 4 nights here in October 07; had a studio suite.  Was very nice, very roomy, very clean.  All the comforts of home.  Bed extremely comfortable.  Great buffet breakfast including hot items (eggs,etc.).  would definitely return.</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r8404824-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>8404824</t>
+  </si>
+  <si>
+    <t>08/12/2007</t>
+  </si>
+  <si>
+    <t>Not my favorite Residence Inn</t>
+  </si>
+  <si>
+    <t>Four of us spent an overnight here recently in a one bedroom unit.  We chose it because it was close to family and a reasonable price given the area.  It was an okay place to stay, but certainly not great.On the plus side, the breakfast was excellent, the place was clean, furniture and decor were lovely and the people at the front desk were pleasant.  On the negative, we felt very cramped in our 1 bedroom unit.  The bedroom was small and the living area seemed smaller. Even the common breakfast area in the lobby was cramped and crowded. (The hotel itself is HUGE.   Walking to breakfast seemed to take 10 minutes.) The pool area was also crowded.Also on the negative - no wireless internet and local phone calls cost $.50.  (Why can't they give free local calls?  This is such a small thing, but it irritated us.)  Additionally, it is difficult to find.  (It's the same driveway as the Courtyard, but in the back and you can't necessarily see it from the feeder.)It does seem like the positives should outweigh the negatives I listed, but somehow, for our group, being in such close quarters was a huge negative. If the price was right we might consider staying here again, but never for more than one night.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2007</t>
+  </si>
+  <si>
+    <t>Four of us spent an overnight here recently in a one bedroom unit.  We chose it because it was close to family and a reasonable price given the area.  It was an okay place to stay, but certainly not great.On the plus side, the breakfast was excellent, the place was clean, furniture and decor were lovely and the people at the front desk were pleasant.  On the negative, we felt very cramped in our 1 bedroom unit.  The bedroom was small and the living area seemed smaller. Even the common breakfast area in the lobby was cramped and crowded. (The hotel itself is HUGE.   Walking to breakfast seemed to take 10 minutes.) The pool area was also crowded.Also on the negative - no wireless internet and local phone calls cost $.50.  (Why can't they give free local calls?  This is such a small thing, but it irritated us.)  Additionally, it is difficult to find.  (It's the same driveway as the Courtyard, but in the back and you can't necessarily see it from the feeder.)It does seem like the positives should outweigh the negatives I listed, but somehow, for our group, being in such close quarters was a huge negative. If the price was right we might consider staying here again, but never for more than one night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r3594153-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3594153</t>
+  </si>
+  <si>
+    <t>06/20/2005</t>
+  </si>
+  <si>
+    <t>Great Hotel!</t>
+  </si>
+  <si>
+    <t>Althought the hotel is poorly marked and a little tough to find, it is well worth it!Clean rooms, warm pool, friendly staff, tasty breakfast!I would definately stay here again!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d286988-r3335021-Residence_Inn_Houston_West_University-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>3335021</t>
+  </si>
+  <si>
+    <t>04/04/2005</t>
+  </si>
+  <si>
+    <t>A+ Location and Facility for Business</t>
+  </si>
+  <si>
+    <t>Stayed here from 03/28 - 04/01/05 at a rate of $124/night.  This hotel is very new, less than a year old.  Very spacious, bright rooms.  Functional space, too.  Great semi-full breakfast in the AM.  Fitness Room had freeweights, which is uncommon in hotel fitness rooms.  Great location just off US 59 &amp; Kirby Drive; 10 minutes from Galleria, Downtown, Rice Univ., Medical Center areas.  Plentiful, free parking.  Lots of great restaurants in a five-minute radius.  All in all a great place, and I'll certainly stay here again for business if the price is right!</t>
+  </si>
+  <si>
+    <t>March 2005</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2472,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2504,5951 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>3</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>77</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>78</v>
+      </c>
+      <c r="X5" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s"/>
+      <c r="O6" t="s"/>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>86</v>
+      </c>
+      <c r="X6" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>90</v>
+      </c>
+      <c r="J7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>94</v>
+      </c>
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>86</v>
+      </c>
+      <c r="X7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>101</v>
+      </c>
+      <c r="O8" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
+        <v>105</v>
+      </c>
+      <c r="L9" t="s">
+        <v>106</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>107</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" t="s">
+        <v>110</v>
+      </c>
+      <c r="K10" t="s">
+        <v>111</v>
+      </c>
+      <c r="L10" t="s">
+        <v>112</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="s">
+        <v>113</v>
+      </c>
+      <c r="O10" t="s">
+        <v>63</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="n">
+        <v>2</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>63</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>123</v>
+      </c>
+      <c r="X11" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>127</v>
+      </c>
+      <c r="J12" t="s">
+        <v>128</v>
+      </c>
+      <c r="K12" t="s">
+        <v>129</v>
+      </c>
+      <c r="L12" t="s">
+        <v>130</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>131</v>
+      </c>
+      <c r="X12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>135</v>
+      </c>
+      <c r="J13" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" t="s">
+        <v>137</v>
+      </c>
+      <c r="L13" t="s">
+        <v>138</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+      <c r="O13" t="s">
+        <v>140</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>4</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>141</v>
+      </c>
+      <c r="X13" t="s">
+        <v>142</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>144</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>146</v>
+      </c>
+      <c r="K14" t="s">
+        <v>147</v>
+      </c>
+      <c r="L14" t="s">
+        <v>148</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>149</v>
+      </c>
+      <c r="O14" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s">
+        <v>156</v>
+      </c>
+      <c r="X15" t="s">
+        <v>157</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>160</v>
+      </c>
+      <c r="J16" t="s">
+        <v>161</v>
+      </c>
+      <c r="K16" t="s">
+        <v>162</v>
+      </c>
+      <c r="L16" t="s">
+        <v>163</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>164</v>
+      </c>
+      <c r="O16" t="s">
+        <v>165</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>4</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>166</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>167</v>
+      </c>
+      <c r="J17" t="s">
+        <v>168</v>
+      </c>
+      <c r="K17" t="s">
+        <v>169</v>
+      </c>
+      <c r="L17" t="s">
+        <v>170</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>171</v>
+      </c>
+      <c r="O17" t="s">
+        <v>63</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>172</v>
+      </c>
+      <c r="X17" t="s">
+        <v>173</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>176</v>
+      </c>
+      <c r="J18" t="s">
+        <v>177</v>
+      </c>
+      <c r="K18" t="s">
+        <v>178</v>
+      </c>
+      <c r="L18" t="s">
+        <v>179</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>3</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
+        <v>180</v>
+      </c>
+      <c r="X18" t="s">
+        <v>181</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>183</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>184</v>
+      </c>
+      <c r="J19" t="s">
+        <v>185</v>
+      </c>
+      <c r="K19" t="s">
+        <v>186</v>
+      </c>
+      <c r="L19" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>188</v>
+      </c>
+      <c r="X19" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>191</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>192</v>
+      </c>
+      <c r="J20" t="s">
+        <v>193</v>
+      </c>
+      <c r="K20" t="s">
+        <v>194</v>
+      </c>
+      <c r="L20" t="s">
+        <v>195</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>196</v>
+      </c>
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>197</v>
+      </c>
+      <c r="X20" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>200</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>201</v>
+      </c>
+      <c r="J21" t="s">
+        <v>202</v>
+      </c>
+      <c r="K21" t="s">
+        <v>203</v>
+      </c>
+      <c r="L21" t="s">
+        <v>204</v>
+      </c>
+      <c r="M21" t="n">
+        <v>3</v>
+      </c>
+      <c r="N21" t="s">
+        <v>205</v>
+      </c>
+      <c r="O21" t="s">
+        <v>63</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>197</v>
+      </c>
+      <c r="X21" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>208</v>
+      </c>
+      <c r="J22" t="s">
+        <v>209</v>
+      </c>
+      <c r="K22" t="s">
+        <v>210</v>
+      </c>
+      <c r="L22" t="s">
+        <v>211</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>205</v>
+      </c>
+      <c r="O22" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>212</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>213</v>
+      </c>
+      <c r="J23" t="s">
+        <v>214</v>
+      </c>
+      <c r="K23" t="s">
+        <v>215</v>
+      </c>
+      <c r="L23" t="s">
+        <v>216</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>217</v>
+      </c>
+      <c r="O23" t="s">
+        <v>63</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s">
+        <v>218</v>
+      </c>
+      <c r="X23" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>221</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>222</v>
+      </c>
+      <c r="J24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+      <c r="L24" t="s">
+        <v>225</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>226</v>
+      </c>
+      <c r="O24" t="s">
+        <v>165</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s">
+        <v>227</v>
+      </c>
+      <c r="X24" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>230</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>231</v>
+      </c>
+      <c r="J25" t="s">
+        <v>232</v>
+      </c>
+      <c r="K25" t="s">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s">
+        <v>234</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>226</v>
+      </c>
+      <c r="O25" t="s">
+        <v>63</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>227</v>
+      </c>
+      <c r="X25" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>236</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>237</v>
+      </c>
+      <c r="J26" t="s">
+        <v>238</v>
+      </c>
+      <c r="K26" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>241</v>
+      </c>
+      <c r="X26" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>244</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>245</v>
+      </c>
+      <c r="J27" t="s">
+        <v>246</v>
+      </c>
+      <c r="K27" t="s">
+        <v>247</v>
+      </c>
+      <c r="L27" t="s">
+        <v>248</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>249</v>
+      </c>
+      <c r="O27" t="s">
+        <v>140</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>250</v>
+      </c>
+      <c r="X27" t="s">
+        <v>251</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>253</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>254</v>
+      </c>
+      <c r="J28" t="s">
+        <v>255</v>
+      </c>
+      <c r="K28" t="s">
+        <v>256</v>
+      </c>
+      <c r="L28" t="s">
+        <v>257</v>
+      </c>
+      <c r="M28" t="n">
+        <v>3</v>
+      </c>
+      <c r="N28" t="s">
+        <v>249</v>
+      </c>
+      <c r="O28" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>258</v>
+      </c>
+      <c r="X28" t="s">
+        <v>259</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>261</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>262</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>264</v>
+      </c>
+      <c r="L29" t="s">
+        <v>265</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>266</v>
+      </c>
+      <c r="O29" t="s">
+        <v>140</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>267</v>
+      </c>
+      <c r="X29" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>270</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>271</v>
+      </c>
+      <c r="J30" t="s">
+        <v>272</v>
+      </c>
+      <c r="K30" t="s">
+        <v>273</v>
+      </c>
+      <c r="L30" t="s">
+        <v>274</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>275</v>
+      </c>
+      <c r="O30" t="s">
+        <v>77</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>276</v>
+      </c>
+      <c r="X30" t="s">
+        <v>277</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>280</v>
+      </c>
+      <c r="J31" t="s">
+        <v>281</v>
+      </c>
+      <c r="K31" t="s">
+        <v>282</v>
+      </c>
+      <c r="L31" t="s">
+        <v>283</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>196</v>
+      </c>
+      <c r="O31" t="s">
+        <v>165</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="s"/>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>285</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>286</v>
+      </c>
+      <c r="J32" t="s">
+        <v>287</v>
+      </c>
+      <c r="K32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L32" t="s">
+        <v>289</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>290</v>
+      </c>
+      <c r="O32" t="s">
+        <v>63</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="n">
+        <v>4</v>
+      </c>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>292</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>293</v>
+      </c>
+      <c r="J33" t="s">
+        <v>294</v>
+      </c>
+      <c r="K33" t="s">
+        <v>295</v>
+      </c>
+      <c r="L33" t="s">
+        <v>296</v>
+      </c>
+      <c r="M33" t="n">
+        <v>3</v>
+      </c>
+      <c r="N33" t="s">
+        <v>297</v>
+      </c>
+      <c r="O33" t="s">
+        <v>63</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>298</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>299</v>
+      </c>
+      <c r="J34" t="s">
+        <v>300</v>
+      </c>
+      <c r="K34" t="s">
+        <v>301</v>
+      </c>
+      <c r="L34" t="s">
+        <v>302</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>303</v>
+      </c>
+      <c r="O34" t="s">
+        <v>63</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q34" t="s"/>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>3</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>304</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>305</v>
+      </c>
+      <c r="J35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K35" t="s">
+        <v>307</v>
+      </c>
+      <c r="L35" t="s">
+        <v>308</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>63</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>5</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>4</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>310</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>311</v>
+      </c>
+      <c r="J36" t="s">
+        <v>312</v>
+      </c>
+      <c r="K36" t="s">
+        <v>313</v>
+      </c>
+      <c r="L36" t="s">
+        <v>314</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>315</v>
+      </c>
+      <c r="O36" t="s">
+        <v>63</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>316</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>317</v>
+      </c>
+      <c r="J37" t="s">
+        <v>318</v>
+      </c>
+      <c r="K37" t="s">
+        <v>319</v>
+      </c>
+      <c r="L37" t="s">
+        <v>320</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>321</v>
+      </c>
+      <c r="O37" t="s">
+        <v>63</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>323</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>324</v>
+      </c>
+      <c r="J38" t="s">
+        <v>325</v>
+      </c>
+      <c r="K38" t="s">
+        <v>326</v>
+      </c>
+      <c r="L38" t="s">
+        <v>327</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s">
+        <v>165</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>328</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>329</v>
+      </c>
+      <c r="J39" t="s">
+        <v>330</v>
+      </c>
+      <c r="K39" t="s">
+        <v>331</v>
+      </c>
+      <c r="L39" t="s">
+        <v>332</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>333</v>
+      </c>
+      <c r="O39" t="s">
+        <v>77</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>334</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" t="s">
+        <v>337</v>
+      </c>
+      <c r="L40" t="s">
+        <v>338</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>321</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>341</v>
+      </c>
+      <c r="J41" t="s">
+        <v>342</v>
+      </c>
+      <c r="K41" t="s">
+        <v>343</v>
+      </c>
+      <c r="L41" t="s">
+        <v>344</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s">
+        <v>345</v>
+      </c>
+      <c r="O41" t="s">
+        <v>63</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>347</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>348</v>
+      </c>
+      <c r="J42" t="s">
+        <v>349</v>
+      </c>
+      <c r="K42" t="s">
+        <v>350</v>
+      </c>
+      <c r="L42" t="s">
+        <v>351</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>352</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>353</v>
+      </c>
+      <c r="J43" t="s">
+        <v>354</v>
+      </c>
+      <c r="K43" t="s">
+        <v>355</v>
+      </c>
+      <c r="L43" t="s">
+        <v>356</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s">
+        <v>357</v>
+      </c>
+      <c r="O43" t="s">
+        <v>63</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>358</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>359</v>
+      </c>
+      <c r="J44" t="s">
+        <v>360</v>
+      </c>
+      <c r="K44" t="s">
+        <v>361</v>
+      </c>
+      <c r="L44" t="s">
+        <v>362</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>363</v>
+      </c>
+      <c r="O44" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" t="s"/>
+      <c r="Q44" t="s"/>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="s"/>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>364</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>365</v>
+      </c>
+      <c r="J45" t="s">
+        <v>366</v>
+      </c>
+      <c r="K45" t="s">
+        <v>367</v>
+      </c>
+      <c r="L45" t="s">
+        <v>368</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>369</v>
+      </c>
+      <c r="O45" t="s">
+        <v>63</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>371</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>372</v>
+      </c>
+      <c r="J46" t="s">
+        <v>373</v>
+      </c>
+      <c r="K46" t="s">
+        <v>374</v>
+      </c>
+      <c r="L46" t="s">
+        <v>375</v>
+      </c>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="s"/>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>377</v>
+      </c>
+      <c r="J47" t="s">
+        <v>378</v>
+      </c>
+      <c r="K47" t="s">
+        <v>379</v>
+      </c>
+      <c r="L47" t="s">
+        <v>380</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>381</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>4</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>382</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>383</v>
+      </c>
+      <c r="J48" t="s">
+        <v>384</v>
+      </c>
+      <c r="K48" t="s">
+        <v>385</v>
+      </c>
+      <c r="L48" t="s">
+        <v>386</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>387</v>
+      </c>
+      <c r="O48" t="s">
+        <v>140</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>4</v>
+      </c>
+      <c r="R48" t="n">
+        <v>4</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>388</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>389</v>
+      </c>
+      <c r="J49" t="s">
+        <v>390</v>
+      </c>
+      <c r="K49" t="s">
+        <v>391</v>
+      </c>
+      <c r="L49" t="s">
+        <v>392</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>381</v>
+      </c>
+      <c r="O49" t="s">
+        <v>140</v>
+      </c>
+      <c r="P49" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>4</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>4</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>394</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>395</v>
+      </c>
+      <c r="J50" t="s">
+        <v>396</v>
+      </c>
+      <c r="K50" t="s">
+        <v>397</v>
+      </c>
+      <c r="L50" t="s">
+        <v>398</v>
+      </c>
+      <c r="M50" t="n">
+        <v>2</v>
+      </c>
+      <c r="N50" t="s">
+        <v>381</v>
+      </c>
+      <c r="O50" t="s">
+        <v>140</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
+      <c r="T50" t="s"/>
+      <c r="U50" t="s"/>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>399</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>400</v>
+      </c>
+      <c r="J51" t="s">
+        <v>401</v>
+      </c>
+      <c r="K51" t="s">
+        <v>402</v>
+      </c>
+      <c r="L51" t="s">
+        <v>403</v>
+      </c>
+      <c r="M51" t="n">
+        <v>3</v>
+      </c>
+      <c r="N51" t="s">
+        <v>404</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>3</v>
+      </c>
+      <c r="R51" t="n">
+        <v>4</v>
+      </c>
+      <c r="S51" t="n">
+        <v>2</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>406</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>407</v>
+      </c>
+      <c r="J52" t="s">
+        <v>408</v>
+      </c>
+      <c r="K52" t="s">
+        <v>409</v>
+      </c>
+      <c r="L52" t="s">
+        <v>410</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
+        <v>411</v>
+      </c>
+      <c r="O52" t="s">
+        <v>140</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>412</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>413</v>
+      </c>
+      <c r="J53" t="s">
+        <v>414</v>
+      </c>
+      <c r="K53" t="s">
+        <v>415</v>
+      </c>
+      <c r="L53" t="s">
+        <v>416</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>417</v>
+      </c>
+      <c r="O53" t="s">
+        <v>77</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>419</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>420</v>
+      </c>
+      <c r="J54" t="s">
+        <v>421</v>
+      </c>
+      <c r="K54" t="s">
+        <v>422</v>
+      </c>
+      <c r="L54" t="s">
+        <v>423</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>424</v>
+      </c>
+      <c r="O54" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>426</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>427</v>
+      </c>
+      <c r="J55" t="s">
+        <v>428</v>
+      </c>
+      <c r="K55" t="s">
+        <v>429</v>
+      </c>
+      <c r="L55" t="s">
+        <v>430</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>4</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>431</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>432</v>
+      </c>
+      <c r="J56" t="s">
+        <v>433</v>
+      </c>
+      <c r="K56" t="s">
+        <v>434</v>
+      </c>
+      <c r="L56" t="s">
+        <v>435</v>
+      </c>
+      <c r="M56" t="n">
+        <v>3</v>
+      </c>
+      <c r="N56" t="s">
+        <v>436</v>
+      </c>
+      <c r="O56" t="s">
+        <v>140</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>3</v>
+      </c>
+      <c r="R56" t="n">
+        <v>3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>437</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>438</v>
+      </c>
+      <c r="J57" t="s">
+        <v>439</v>
+      </c>
+      <c r="K57" t="s">
+        <v>440</v>
+      </c>
+      <c r="L57" t="s">
+        <v>441</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s">
+        <v>442</v>
+      </c>
+      <c r="O57" t="s">
+        <v>140</v>
+      </c>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>444</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>445</v>
+      </c>
+      <c r="J58" t="s">
+        <v>446</v>
+      </c>
+      <c r="K58" t="s">
+        <v>447</v>
+      </c>
+      <c r="L58" t="s">
+        <v>448</v>
+      </c>
+      <c r="M58" t="n">
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>449</v>
+      </c>
+      <c r="O58" t="s">
+        <v>140</v>
+      </c>
+      <c r="P58" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>4</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>451</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>452</v>
+      </c>
+      <c r="J59" t="s">
+        <v>453</v>
+      </c>
+      <c r="K59" t="s">
+        <v>454</v>
+      </c>
+      <c r="L59" t="s">
+        <v>455</v>
+      </c>
+      <c r="M59" t="n">
+        <v>3</v>
+      </c>
+      <c r="N59" t="s">
+        <v>456</v>
+      </c>
+      <c r="O59" t="s">
+        <v>77</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>3</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>3</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>2</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>458</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>459</v>
+      </c>
+      <c r="J60" t="s">
+        <v>460</v>
+      </c>
+      <c r="K60" t="s">
+        <v>461</v>
+      </c>
+      <c r="L60" t="s">
+        <v>462</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>463</v>
+      </c>
+      <c r="O60" t="s">
+        <v>63</v>
+      </c>
+      <c r="P60" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>2</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>2</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>465</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>466</v>
+      </c>
+      <c r="J61" t="s">
+        <v>467</v>
+      </c>
+      <c r="K61" t="s">
+        <v>468</v>
+      </c>
+      <c r="L61" t="s">
+        <v>469</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s">
+        <v>165</v>
+      </c>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>472</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>473</v>
+      </c>
+      <c r="J62" t="s">
+        <v>474</v>
+      </c>
+      <c r="K62" t="s">
+        <v>475</v>
+      </c>
+      <c r="L62" t="s">
+        <v>476</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>477</v>
+      </c>
+      <c r="O62" t="s">
+        <v>140</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>479</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>480</v>
+      </c>
+      <c r="J63" t="s">
+        <v>481</v>
+      </c>
+      <c r="K63" t="s">
+        <v>482</v>
+      </c>
+      <c r="L63" t="s">
+        <v>483</v>
+      </c>
+      <c r="M63" t="n">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>484</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>4</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>486</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>487</v>
+      </c>
+      <c r="J64" t="s">
+        <v>488</v>
+      </c>
+      <c r="K64" t="s">
+        <v>489</v>
+      </c>
+      <c r="L64" t="s">
+        <v>490</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>491</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>493</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>494</v>
+      </c>
+      <c r="J65" t="s">
+        <v>495</v>
+      </c>
+      <c r="K65" t="s">
+        <v>496</v>
+      </c>
+      <c r="L65" t="s">
+        <v>497</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>491</v>
+      </c>
+      <c r="O65" t="s">
+        <v>140</v>
+      </c>
+      <c r="P65" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>5</v>
+      </c>
+      <c r="R65" t="n">
+        <v>5</v>
+      </c>
+      <c r="S65" t="n">
+        <v>5</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>498</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>499</v>
+      </c>
+      <c r="J66" t="s">
+        <v>500</v>
+      </c>
+      <c r="K66" t="s">
+        <v>501</v>
+      </c>
+      <c r="L66" t="s">
+        <v>502</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>503</v>
+      </c>
+      <c r="O66" t="s">
+        <v>63</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>505</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>506</v>
+      </c>
+      <c r="J67" t="s">
+        <v>507</v>
+      </c>
+      <c r="K67" t="s">
+        <v>508</v>
+      </c>
+      <c r="L67" t="s">
+        <v>509</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>503</v>
+      </c>
+      <c r="O67" t="s">
+        <v>140</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>511</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>512</v>
+      </c>
+      <c r="J68" t="s">
+        <v>513</v>
+      </c>
+      <c r="K68" t="s">
+        <v>514</v>
+      </c>
+      <c r="L68" t="s">
+        <v>515</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>516</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>517</v>
+      </c>
+      <c r="J69" t="s">
+        <v>518</v>
+      </c>
+      <c r="K69" t="s">
+        <v>519</v>
+      </c>
+      <c r="L69" t="s">
+        <v>520</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>521</v>
+      </c>
+      <c r="O69" t="s">
+        <v>63</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>523</v>
+      </c>
+      <c r="J70" t="s">
+        <v>524</v>
+      </c>
+      <c r="K70" t="s">
+        <v>525</v>
+      </c>
+      <c r="L70" t="s">
+        <v>526</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>521</v>
+      </c>
+      <c r="O70" t="s">
+        <v>77</v>
+      </c>
+      <c r="P70" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>527</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>528</v>
+      </c>
+      <c r="J71" t="s">
+        <v>529</v>
+      </c>
+      <c r="K71" t="s">
+        <v>530</v>
+      </c>
+      <c r="L71" t="s">
+        <v>531</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>532</v>
+      </c>
+      <c r="O71" t="s">
+        <v>140</v>
+      </c>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>4</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>533</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>534</v>
+      </c>
+      <c r="J72" t="s">
+        <v>535</v>
+      </c>
+      <c r="K72" t="s">
+        <v>536</v>
+      </c>
+      <c r="L72" t="s">
+        <v>537</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>538</v>
+      </c>
+      <c r="O72" t="s">
+        <v>77</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="s"/>
+      <c r="R72" t="s"/>
+      <c r="S72" t="n">
+        <v>4</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>539</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>540</v>
+      </c>
+      <c r="J73" t="s">
+        <v>541</v>
+      </c>
+      <c r="K73" t="s">
+        <v>542</v>
+      </c>
+      <c r="L73" t="s">
+        <v>543</v>
+      </c>
+      <c r="M73" t="n">
+        <v>5</v>
+      </c>
+      <c r="N73" t="s">
+        <v>538</v>
+      </c>
+      <c r="O73" t="s">
+        <v>63</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="s"/>
+      <c r="R73" t="s"/>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>544</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>545</v>
+      </c>
+      <c r="J74" t="s">
+        <v>546</v>
+      </c>
+      <c r="K74" t="s">
+        <v>547</v>
+      </c>
+      <c r="L74" t="s">
+        <v>548</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>538</v>
+      </c>
+      <c r="O74" t="s">
+        <v>165</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>550</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>551</v>
+      </c>
+      <c r="J75" t="s">
+        <v>552</v>
+      </c>
+      <c r="K75" t="s">
+        <v>553</v>
+      </c>
+      <c r="L75" t="s">
+        <v>554</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="s"/>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="s"/>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>555</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>556</v>
+      </c>
+      <c r="J76" t="s">
+        <v>557</v>
+      </c>
+      <c r="K76" t="s">
+        <v>558</v>
+      </c>
+      <c r="L76" t="s">
+        <v>559</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>560</v>
+      </c>
+      <c r="O76" t="s">
+        <v>140</v>
+      </c>
+      <c r="P76" t="s"/>
+      <c r="Q76" t="s"/>
+      <c r="R76" t="s"/>
+      <c r="S76" t="s"/>
+      <c r="T76" t="s"/>
+      <c r="U76" t="s"/>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>562</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>563</v>
+      </c>
+      <c r="J77" t="s">
+        <v>564</v>
+      </c>
+      <c r="K77" t="s">
+        <v>565</v>
+      </c>
+      <c r="L77" t="s">
+        <v>566</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>567</v>
+      </c>
+      <c r="O77" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>568</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>569</v>
+      </c>
+      <c r="J78" t="s">
+        <v>570</v>
+      </c>
+      <c r="K78" t="s">
+        <v>571</v>
+      </c>
+      <c r="L78" t="s">
+        <v>572</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>567</v>
+      </c>
+      <c r="O78" t="s">
+        <v>140</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>574</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>575</v>
+      </c>
+      <c r="J79" t="s">
+        <v>576</v>
+      </c>
+      <c r="K79" t="s">
+        <v>577</v>
+      </c>
+      <c r="L79" t="s">
+        <v>578</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>567</v>
+      </c>
+      <c r="O79" t="s">
+        <v>63</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>579</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>580</v>
+      </c>
+      <c r="J80" t="s">
+        <v>581</v>
+      </c>
+      <c r="K80" t="s">
+        <v>105</v>
+      </c>
+      <c r="L80" t="s">
+        <v>582</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>583</v>
+      </c>
+      <c r="O80" t="s">
+        <v>77</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>584</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>585</v>
+      </c>
+      <c r="J81" t="s">
+        <v>586</v>
+      </c>
+      <c r="K81" t="s">
+        <v>587</v>
+      </c>
+      <c r="L81" t="s">
+        <v>588</v>
+      </c>
+      <c r="M81" t="n">
+        <v>1</v>
+      </c>
+      <c r="N81" t="s">
+        <v>589</v>
+      </c>
+      <c r="O81" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>3</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>1</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>591</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>592</v>
+      </c>
+      <c r="J82" t="s">
+        <v>593</v>
+      </c>
+      <c r="K82" t="s">
+        <v>594</v>
+      </c>
+      <c r="L82" t="s">
+        <v>595</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>596</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="s"/>
+      <c r="Q82" t="s"/>
+      <c r="R82" t="s"/>
+      <c r="S82" t="s"/>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>598</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>599</v>
+      </c>
+      <c r="J83" t="s">
+        <v>600</v>
+      </c>
+      <c r="K83" t="s">
+        <v>601</v>
+      </c>
+      <c r="L83" t="s">
+        <v>602</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>603</v>
+      </c>
+      <c r="O83" t="s">
+        <v>77</v>
+      </c>
+      <c r="P83" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>4</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>605</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>606</v>
+      </c>
+      <c r="J84" t="s">
+        <v>607</v>
+      </c>
+      <c r="K84" t="s">
+        <v>608</v>
+      </c>
+      <c r="L84" t="s">
+        <v>609</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>603</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>611</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>612</v>
+      </c>
+      <c r="J85" t="s">
+        <v>613</v>
+      </c>
+      <c r="K85" t="s">
+        <v>614</v>
+      </c>
+      <c r="L85" t="s">
+        <v>615</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>616</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>618</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>619</v>
+      </c>
+      <c r="J86" t="s">
+        <v>620</v>
+      </c>
+      <c r="K86" t="s">
+        <v>621</v>
+      </c>
+      <c r="L86" t="s">
+        <v>622</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>623</v>
+      </c>
+      <c r="O86" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>5</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>4</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>625</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>626</v>
+      </c>
+      <c r="J87" t="s">
+        <v>627</v>
+      </c>
+      <c r="K87" t="s">
+        <v>628</v>
+      </c>
+      <c r="L87" t="s">
+        <v>629</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>630</v>
+      </c>
+      <c r="O87" t="s">
+        <v>63</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>3</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>4</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>631</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>632</v>
+      </c>
+      <c r="J88" t="s">
+        <v>633</v>
+      </c>
+      <c r="K88" t="s">
+        <v>634</v>
+      </c>
+      <c r="L88" t="s">
+        <v>635</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>636</v>
+      </c>
+      <c r="O88" t="s">
+        <v>165</v>
+      </c>
+      <c r="P88" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>4</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="s"/>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>638</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>639</v>
+      </c>
+      <c r="J89" t="s">
+        <v>640</v>
+      </c>
+      <c r="K89" t="s">
+        <v>641</v>
+      </c>
+      <c r="L89" t="s">
+        <v>642</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>643</v>
+      </c>
+      <c r="O89" t="s">
+        <v>77</v>
+      </c>
+      <c r="P89" t="s"/>
+      <c r="Q89" t="n">
+        <v>4</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>645</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>646</v>
+      </c>
+      <c r="J90" t="s">
+        <v>647</v>
+      </c>
+      <c r="K90" t="s">
+        <v>648</v>
+      </c>
+      <c r="L90" t="s">
+        <v>649</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>650</v>
+      </c>
+      <c r="O90" t="s">
+        <v>140</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>3</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>651</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>652</v>
+      </c>
+      <c r="J91" t="s">
+        <v>653</v>
+      </c>
+      <c r="K91" t="s">
+        <v>654</v>
+      </c>
+      <c r="L91" t="s">
+        <v>655</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2</v>
+      </c>
+      <c r="N91" t="s">
+        <v>656</v>
+      </c>
+      <c r="O91" t="s">
+        <v>63</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>2</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>4</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>658</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>659</v>
+      </c>
+      <c r="J92" t="s">
+        <v>660</v>
+      </c>
+      <c r="K92" t="s">
+        <v>661</v>
+      </c>
+      <c r="L92" t="s">
+        <v>662</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s"/>
+      <c r="O92" t="s"/>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>5</v>
+      </c>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>52212</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>663</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>664</v>
+      </c>
+      <c r="J93" t="s">
+        <v>665</v>
+      </c>
+      <c r="K93" t="s">
+        <v>666</v>
+      </c>
+      <c r="L93" t="s">
+        <v>667</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>668</v>
+      </c>
+      <c r="O93" t="s">
+        <v>140</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="s"/>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
